--- a/me/10.Governors-Limits-and-Code-Bulkification.xlsx
+++ b/me/10.Governors-Limits-and-Code-Bulkification.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\quang\salesforce\me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08A4653-FAFD-4C9C-9191-56BDA88915EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1E786-5F8A-4F67-8DA5-F8ACDE80D1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Governor Limits Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Transaction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Execution Governors and Limits</t>
     <phoneticPr fontId="1"/>
@@ -34,25 +35,239 @@
     <t>https://developer.salesforce.com/docs/atlas.en-us.apexcode.meta/apexcode/apex_gov_limits.htm</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>salesforce</t>
+  </si>
+  <si>
+    <t>2.Apex-Fundamentals</t>
+  </si>
+  <si>
+    <t>3.Control-Flow-Statements</t>
+  </si>
+  <si>
+    <t>4.Apex-Classes-and-Methods</t>
+  </si>
+  <si>
+    <t>5.Apex-Testing</t>
+  </si>
+  <si>
+    <t>6.Salesforce-Object-Query-Language</t>
+  </si>
+  <si>
+    <t>7.SObject-and-DML</t>
+  </si>
+  <si>
+    <t>8.Exception-Handling</t>
+  </si>
+  <si>
+    <t>9.VS Code-Setup</t>
+  </si>
+  <si>
+    <t>10.Governors-Limits-and-Code-Bulkification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.transaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev-console.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salesforce\10.Governors-Limits-and-Code-Bulkification\1.transaction\dev-console.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Example 1</t>
+  </si>
+  <si>
+    <t>// insert single account</t>
+  </si>
+  <si>
+    <t>Account singleAccount = new Account(Name='Single Test Account');</t>
+  </si>
+  <si>
+    <t>insert singleAccount;</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Example 2</t>
+  </si>
+  <si>
+    <t>// insert multiple accounts</t>
+  </si>
+  <si>
+    <t>List&lt;Account&gt; multipleAccounts = new List&lt;Account&gt;();</t>
+  </si>
+  <si>
+    <t>for(Integer i=0; i&lt;100; i++){</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>insert multipleAccounts;</t>
+  </si>
+  <si>
+    <t>// Example 3</t>
+  </si>
+  <si>
+    <t>// delete multiple accounts</t>
+  </si>
+  <si>
+    <t>delete [SELECT Id FROM Account WHERE Name LIKE '%test%'];</t>
+  </si>
+  <si>
+    <t>Single Transaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Transaction này th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n 1 Insert Operation( 1 DML statement) đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thêm 1 account</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Example 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    multipleAccounts.add(new Account(Name='Multiple Test Account ' + String.valueOf(i)));</t>
+  </si>
+  <si>
+    <t>Per-Transaction Apex Limits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Example 3</t>
+  </si>
+  <si>
+    <t>Thêm 100 row cùng 1 lúc, chỉ cần 1 DML statement để thực hiện do đó được insert bởi 1 transaction mà ko cần phải dùng 100 transaction</t>
+  </si>
+  <si>
+    <t>Thực hiện 1 câu SOQL để lấy được 101 row, và sau đó dùng 1 DML statement để xóa đi 101 row đó, đó cũng là 1 single transaction. Khi xóa đến 1 row nào đó bị fail thì transaction đó sẽ được roll back</t>
+  </si>
+  <si>
+    <t>Có 1 cách khác để biết single transaction hya ko đó là mình check ở log file. Nếu chỉ có 1 log file được sinh ra sau khi execute. Thấy rằng có 3 file log được sinh ra bởi Example 1, Example 2</t>
+  </si>
+  <si>
+    <t>và Example 3 nên mỗi Example trên đều là 1 single transaction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -69,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,17 +292,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,6 +447,953 @@
         <a:xfrm>
           <a:off x="754530" y="1240119"/>
           <a:ext cx="12169587" cy="6091132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>360724</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>106125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1408B019-EA9B-E0AF-3D73-48BDACE198B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="719364" y="10061121"/>
+          <a:ext cx="12425136" cy="6146789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>141007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01B6B75-6CE3-2CA4-94A2-A8027AC88039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769471" y="17204764"/>
+          <a:ext cx="11990294" cy="6095066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625F33AC-FE46-D8D7-AF67-659EFB88919A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866588" y="799353"/>
+          <a:ext cx="8875059" cy="5512461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>612588</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533A5B1E-E5A2-13A2-C263-848091DA7F20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="709706"/>
+          <a:ext cx="358588" cy="560294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4373F6-C033-7853-4FE4-80383A37215A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1262529" y="702235"/>
+          <a:ext cx="4161118" cy="552824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463177</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5F84FA-5CA6-2AA3-2BF4-CFDD884FA438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3092824" y="23315706"/>
+          <a:ext cx="321235" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>239059</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE482D7C-1204-147C-EAA8-AD9C1454C075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4840941" y="23323176"/>
+          <a:ext cx="687294" cy="1807883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373529</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84E4B73-D3F3-ACD3-F7E2-3B5715F43DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2569882" y="23308235"/>
+          <a:ext cx="1090706" cy="1830294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>117069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE68632-9784-98F1-7BDD-5F03A002B204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784412" y="30233470"/>
+          <a:ext cx="11908118" cy="9253599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>463177</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>86566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303849A6-6CFC-753A-EAF7-F9543E2F8329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784413" y="42283530"/>
+          <a:ext cx="12371293" cy="6204977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>242011</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164604</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5CAEE1-7602-38E4-6252-35706AC34C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="851611" y="40468177"/>
+          <a:ext cx="11038268" cy="5154191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>497501</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>80819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5FFF3D-1AC8-BA3D-7DE0-0BA6776B56DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14808743" y="27329450"/>
+          <a:ext cx="16157213" cy="8080460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323273</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3585778-9E9F-C4B0-0EB9-BAA0CE39C6C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4929909" y="26935545"/>
+          <a:ext cx="20296909" cy="4479637"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>184728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07EE34A-4C9A-316F-3614-A88251699E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4680857" y="31027585"/>
+          <a:ext cx="20763675" cy="19763344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181427</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>308427</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>58963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFC0F4F-9551-FB03-3907-6531CD498BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="843641" y="53965929"/>
+          <a:ext cx="12246429" cy="9593034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CE307C-0993-DF4B-7D4C-23378913175A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="40347900"/>
+          <a:ext cx="1133475" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>82699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDF8393-6AAB-B4D8-18F1-593F97FFE705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="55121175"/>
+          <a:ext cx="11296650" cy="5731024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>86833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7557F895-7392-3F51-95C3-50CA01E5B710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="61645800"/>
+          <a:ext cx="11210925" cy="5687533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>106141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012D4878-E123-B874-82CF-AEEB081C068D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="67884674"/>
+          <a:ext cx="11144250" cy="5563967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -416,11 +1670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
@@ -431,6 +1685,5701 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56030F0B-19FB-4EA4-85CF-69650E5DF10D}">
+  <dimension ref="A3:AU386"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A284" sqref="A284"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15">
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="6"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="6"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="6"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="6"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="6"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="6"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="6"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="6"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="6"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="6"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="6"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="6"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="6"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="6"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="6"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="6"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="6"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="6"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="6"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="B33" s="6"/>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="B34" s="6"/>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="B35" s="6"/>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" s="6"/>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="6"/>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="6"/>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="6"/>
+      <c r="C41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="6"/>
+      <c r="D42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="6"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="6"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="6"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="T67" s="7"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="T68" s="7"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="T69" s="7"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="6"/>
+      <c r="B70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="11"/>
+      <c r="T70" s="7"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="6"/>
+      <c r="T71" s="7"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="6"/>
+      <c r="T72" s="7"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="6"/>
+      <c r="T73" s="7"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="6"/>
+      <c r="T74" s="7"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="6"/>
+      <c r="T75" s="7"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="6"/>
+      <c r="T76" s="7"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="6"/>
+      <c r="T77" s="7"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="6"/>
+      <c r="T78" s="7"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="6"/>
+      <c r="T79" s="7"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="6"/>
+      <c r="T80" s="7"/>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="6"/>
+      <c r="T81" s="7"/>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="6"/>
+      <c r="T82" s="7"/>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="6"/>
+      <c r="T83" s="7"/>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" s="6"/>
+      <c r="T84" s="7"/>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="6"/>
+      <c r="T85" s="7"/>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" s="6"/>
+      <c r="T86" s="7"/>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" s="6"/>
+      <c r="T87" s="7"/>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" s="6"/>
+      <c r="T88" s="7"/>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" s="6"/>
+      <c r="T89" s="7"/>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="6"/>
+      <c r="T90" s="7"/>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="6"/>
+      <c r="T91" s="7"/>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="6"/>
+      <c r="T92" s="7"/>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="6"/>
+      <c r="T93" s="7"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="6"/>
+      <c r="T94" s="7"/>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="6"/>
+      <c r="T95" s="7"/>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="6"/>
+      <c r="T96" s="7"/>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" s="6"/>
+      <c r="T97" s="7"/>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" s="6"/>
+      <c r="T98" s="7"/>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" s="6"/>
+      <c r="T99" s="7"/>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" s="6"/>
+      <c r="T100" s="7"/>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" s="6"/>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="T101" s="7"/>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" s="6"/>
+      <c r="T102" s="7"/>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" s="6"/>
+      <c r="T103" s="7"/>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104" s="6"/>
+      <c r="T104" s="7"/>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105" s="6"/>
+      <c r="T105" s="7"/>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" s="6"/>
+      <c r="T106" s="7"/>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107" s="6"/>
+      <c r="T107" s="7"/>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108" s="6"/>
+      <c r="T108" s="7"/>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109" s="6"/>
+      <c r="T109" s="7"/>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110" s="6"/>
+      <c r="T110" s="7"/>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111" s="6"/>
+      <c r="T111" s="7"/>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112" s="6"/>
+      <c r="T112" s="7"/>
+    </row>
+    <row r="113" spans="1:47">
+      <c r="A113" s="6"/>
+      <c r="T113" s="7"/>
+    </row>
+    <row r="114" spans="1:47">
+      <c r="A114" s="6"/>
+      <c r="T114" s="7"/>
+    </row>
+    <row r="115" spans="1:47">
+      <c r="A115" s="6"/>
+      <c r="T115" s="7"/>
+    </row>
+    <row r="116" spans="1:47">
+      <c r="A116" s="6"/>
+      <c r="T116" s="7"/>
+    </row>
+    <row r="117" spans="1:47">
+      <c r="A117" s="6"/>
+      <c r="T117" s="7"/>
+      <c r="W117" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4"/>
+      <c r="AE117" s="4"/>
+      <c r="AF117" s="4"/>
+      <c r="AG117" s="4"/>
+      <c r="AH117" s="4"/>
+      <c r="AI117" s="4"/>
+      <c r="AJ117" s="4"/>
+      <c r="AK117" s="4"/>
+      <c r="AL117" s="4"/>
+      <c r="AM117" s="4"/>
+      <c r="AN117" s="4"/>
+      <c r="AO117" s="4"/>
+      <c r="AP117" s="4"/>
+      <c r="AQ117" s="4"/>
+      <c r="AR117" s="4"/>
+      <c r="AS117" s="4"/>
+      <c r="AT117" s="4"/>
+      <c r="AU117" s="5"/>
+    </row>
+    <row r="118" spans="1:47">
+      <c r="A118" s="6"/>
+      <c r="T118" s="7"/>
+      <c r="W118" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU118" s="7"/>
+    </row>
+    <row r="119" spans="1:47">
+      <c r="A119" s="6"/>
+      <c r="T119" s="7"/>
+      <c r="W119" s="6"/>
+      <c r="AU119" s="7"/>
+    </row>
+    <row r="120" spans="1:47">
+      <c r="A120" s="6"/>
+      <c r="T120" s="7"/>
+      <c r="W120" s="6"/>
+      <c r="AU120" s="7"/>
+    </row>
+    <row r="121" spans="1:47">
+      <c r="A121" s="6"/>
+      <c r="T121" s="7"/>
+      <c r="W121" s="6"/>
+      <c r="AU121" s="7"/>
+    </row>
+    <row r="122" spans="1:47">
+      <c r="A122" s="6"/>
+      <c r="T122" s="7"/>
+      <c r="W122" s="6"/>
+      <c r="AU122" s="7"/>
+    </row>
+    <row r="123" spans="1:47">
+      <c r="A123" s="6"/>
+      <c r="T123" s="7"/>
+      <c r="W123" s="6"/>
+      <c r="AU123" s="7"/>
+    </row>
+    <row r="124" spans="1:47">
+      <c r="A124" s="6"/>
+      <c r="T124" s="7"/>
+      <c r="W124" s="6"/>
+      <c r="AU124" s="7"/>
+    </row>
+    <row r="125" spans="1:47">
+      <c r="A125" s="6"/>
+      <c r="T125" s="7"/>
+      <c r="W125" s="6"/>
+      <c r="AU125" s="7"/>
+    </row>
+    <row r="126" spans="1:47">
+      <c r="A126" s="6"/>
+      <c r="T126" s="7"/>
+      <c r="W126" s="6"/>
+      <c r="AU126" s="7"/>
+    </row>
+    <row r="127" spans="1:47">
+      <c r="A127" s="6"/>
+      <c r="T127" s="7"/>
+      <c r="W127" s="6"/>
+      <c r="AU127" s="7"/>
+    </row>
+    <row r="128" spans="1:47">
+      <c r="A128" s="6"/>
+      <c r="T128" s="7"/>
+      <c r="W128" s="6"/>
+      <c r="AU128" s="7"/>
+    </row>
+    <row r="129" spans="1:47">
+      <c r="A129" s="6"/>
+      <c r="T129" s="7"/>
+      <c r="W129" s="6"/>
+      <c r="AU129" s="7"/>
+    </row>
+    <row r="130" spans="1:47">
+      <c r="A130" s="6"/>
+      <c r="T130" s="7"/>
+      <c r="W130" s="6"/>
+      <c r="AU130" s="7"/>
+    </row>
+    <row r="131" spans="1:47">
+      <c r="A131" s="6"/>
+      <c r="T131" s="7"/>
+      <c r="W131" s="6"/>
+      <c r="AU131" s="7"/>
+    </row>
+    <row r="132" spans="1:47">
+      <c r="A132" s="6"/>
+      <c r="T132" s="7"/>
+      <c r="W132" s="6"/>
+      <c r="AU132" s="7"/>
+    </row>
+    <row r="133" spans="1:47">
+      <c r="A133" s="6"/>
+      <c r="T133" s="7"/>
+      <c r="W133" s="6"/>
+      <c r="AU133" s="7"/>
+    </row>
+    <row r="134" spans="1:47">
+      <c r="A134" s="6"/>
+      <c r="T134" s="7"/>
+      <c r="W134" s="6"/>
+      <c r="AU134" s="7"/>
+    </row>
+    <row r="135" spans="1:47">
+      <c r="A135" s="6"/>
+      <c r="T135" s="7"/>
+      <c r="W135" s="6"/>
+      <c r="AU135" s="7"/>
+    </row>
+    <row r="136" spans="1:47">
+      <c r="A136" s="6"/>
+      <c r="T136" s="7"/>
+      <c r="W136" s="6"/>
+      <c r="AU136" s="7"/>
+    </row>
+    <row r="137" spans="1:47">
+      <c r="A137" s="6"/>
+      <c r="T137" s="7"/>
+      <c r="W137" s="6"/>
+      <c r="AU137" s="7"/>
+    </row>
+    <row r="138" spans="1:47">
+      <c r="A138" s="6"/>
+      <c r="T138" s="7"/>
+      <c r="W138" s="6"/>
+      <c r="AU138" s="7"/>
+    </row>
+    <row r="139" spans="1:47">
+      <c r="A139" s="6"/>
+      <c r="T139" s="7"/>
+      <c r="W139" s="6"/>
+      <c r="AU139" s="7"/>
+    </row>
+    <row r="140" spans="1:47">
+      <c r="A140" s="6"/>
+      <c r="T140" s="7"/>
+      <c r="W140" s="6"/>
+      <c r="AU140" s="7"/>
+    </row>
+    <row r="141" spans="1:47">
+      <c r="A141" s="6"/>
+      <c r="T141" s="7"/>
+      <c r="W141" s="6"/>
+      <c r="AU141" s="7"/>
+    </row>
+    <row r="142" spans="1:47">
+      <c r="A142" s="6"/>
+      <c r="T142" s="7"/>
+      <c r="W142" s="6"/>
+      <c r="AU142" s="7"/>
+    </row>
+    <row r="143" spans="1:47">
+      <c r="A143" s="6"/>
+      <c r="T143" s="7"/>
+      <c r="W143" s="6"/>
+      <c r="AU143" s="7"/>
+    </row>
+    <row r="144" spans="1:47">
+      <c r="A144" s="6"/>
+      <c r="T144" s="7"/>
+      <c r="W144" s="6"/>
+      <c r="AU144" s="7"/>
+    </row>
+    <row r="145" spans="1:47">
+      <c r="A145" s="6"/>
+      <c r="T145" s="7"/>
+      <c r="W145" s="6"/>
+      <c r="AU145" s="7"/>
+    </row>
+    <row r="146" spans="1:47">
+      <c r="A146" s="6"/>
+      <c r="T146" s="7"/>
+      <c r="W146" s="6"/>
+      <c r="AU146" s="7"/>
+    </row>
+    <row r="147" spans="1:47">
+      <c r="A147" s="6"/>
+      <c r="T147" s="7"/>
+      <c r="W147" s="6"/>
+      <c r="AU147" s="7"/>
+    </row>
+    <row r="148" spans="1:47">
+      <c r="A148" s="6"/>
+      <c r="T148" s="7"/>
+      <c r="W148" s="6"/>
+      <c r="AU148" s="7"/>
+    </row>
+    <row r="149" spans="1:47">
+      <c r="A149" s="6"/>
+      <c r="T149" s="7"/>
+      <c r="W149" s="6"/>
+      <c r="AU149" s="7"/>
+    </row>
+    <row r="150" spans="1:47">
+      <c r="A150" s="6"/>
+      <c r="T150" s="7"/>
+      <c r="W150" s="6"/>
+      <c r="AU150" s="7"/>
+    </row>
+    <row r="151" spans="1:47">
+      <c r="A151" s="6"/>
+      <c r="T151" s="7"/>
+      <c r="W151" s="6"/>
+      <c r="AU151" s="7"/>
+    </row>
+    <row r="152" spans="1:47">
+      <c r="A152" s="6"/>
+      <c r="T152" s="7"/>
+      <c r="W152" s="6"/>
+      <c r="AU152" s="7"/>
+    </row>
+    <row r="153" spans="1:47">
+      <c r="A153" s="6"/>
+      <c r="T153" s="7"/>
+      <c r="W153" s="6"/>
+      <c r="AU153" s="7"/>
+    </row>
+    <row r="154" spans="1:47">
+      <c r="A154" s="6"/>
+      <c r="T154" s="7"/>
+      <c r="W154" s="9"/>
+      <c r="X154" s="10"/>
+      <c r="Y154" s="10"/>
+      <c r="Z154" s="10"/>
+      <c r="AA154" s="10"/>
+      <c r="AB154" s="10"/>
+      <c r="AC154" s="10"/>
+      <c r="AD154" s="10"/>
+      <c r="AE154" s="10"/>
+      <c r="AF154" s="10"/>
+      <c r="AG154" s="10"/>
+      <c r="AH154" s="10"/>
+      <c r="AI154" s="10"/>
+      <c r="AJ154" s="10"/>
+      <c r="AK154" s="10"/>
+      <c r="AL154" s="10"/>
+      <c r="AM154" s="10"/>
+      <c r="AN154" s="10"/>
+      <c r="AO154" s="10"/>
+      <c r="AP154" s="10"/>
+      <c r="AQ154" s="10"/>
+      <c r="AR154" s="10"/>
+      <c r="AS154" s="10"/>
+      <c r="AT154" s="10"/>
+      <c r="AU154" s="11"/>
+    </row>
+    <row r="155" spans="1:47">
+      <c r="A155" s="6"/>
+      <c r="T155" s="7"/>
+    </row>
+    <row r="156" spans="1:47">
+      <c r="A156" s="6"/>
+      <c r="T156" s="7"/>
+    </row>
+    <row r="157" spans="1:47">
+      <c r="A157" s="6"/>
+      <c r="T157" s="7"/>
+    </row>
+    <row r="158" spans="1:47">
+      <c r="A158" s="6"/>
+      <c r="T158" s="7"/>
+    </row>
+    <row r="159" spans="1:47">
+      <c r="A159" s="6"/>
+      <c r="T159" s="7"/>
+    </row>
+    <row r="160" spans="1:47">
+      <c r="A160" s="6"/>
+      <c r="T160" s="7"/>
+    </row>
+    <row r="161" spans="1:20">
+      <c r="A161" s="6"/>
+      <c r="T161" s="7"/>
+    </row>
+    <row r="162" spans="1:20">
+      <c r="A162" s="6"/>
+      <c r="T162" s="7"/>
+    </row>
+    <row r="163" spans="1:20">
+      <c r="A163" s="6"/>
+      <c r="T163" s="7"/>
+    </row>
+    <row r="164" spans="1:20">
+      <c r="A164" s="6"/>
+      <c r="T164" s="7"/>
+    </row>
+    <row r="165" spans="1:20">
+      <c r="A165" s="6"/>
+      <c r="T165" s="7"/>
+    </row>
+    <row r="166" spans="1:20">
+      <c r="A166" s="6"/>
+      <c r="T166" s="7"/>
+    </row>
+    <row r="167" spans="1:20">
+      <c r="A167" s="6"/>
+      <c r="T167" s="7"/>
+    </row>
+    <row r="168" spans="1:20">
+      <c r="A168" s="6"/>
+      <c r="T168" s="7"/>
+    </row>
+    <row r="169" spans="1:20">
+      <c r="A169" s="6"/>
+      <c r="T169" s="7"/>
+    </row>
+    <row r="170" spans="1:20">
+      <c r="A170" s="6"/>
+      <c r="T170" s="7"/>
+    </row>
+    <row r="171" spans="1:20">
+      <c r="A171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="11"/>
+    </row>
+    <row r="174" spans="1:20">
+      <c r="A174" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="5"/>
+    </row>
+    <row r="175" spans="1:20">
+      <c r="A175" s="6"/>
+      <c r="B175" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="14"/>
+      <c r="M175" s="14"/>
+      <c r="N175" s="14"/>
+      <c r="O175" s="14"/>
+      <c r="P175" s="14"/>
+      <c r="Q175" s="14"/>
+      <c r="R175" s="14"/>
+      <c r="S175" s="14"/>
+      <c r="T175" s="7"/>
+    </row>
+    <row r="176" spans="1:20">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="14"/>
+      <c r="S176" s="14"/>
+      <c r="T176" s="7"/>
+    </row>
+    <row r="177" spans="1:20">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14"/>
+      <c r="O177" s="14"/>
+      <c r="P177" s="14"/>
+      <c r="Q177" s="14"/>
+      <c r="R177" s="14"/>
+      <c r="S177" s="14"/>
+      <c r="T177" s="7"/>
+    </row>
+    <row r="178" spans="1:20">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="14"/>
+      <c r="S178" s="14"/>
+      <c r="T178" s="7"/>
+    </row>
+    <row r="179" spans="1:20">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14"/>
+      <c r="O179" s="14"/>
+      <c r="P179" s="14"/>
+      <c r="Q179" s="14"/>
+      <c r="R179" s="14"/>
+      <c r="S179" s="14"/>
+      <c r="T179" s="7"/>
+    </row>
+    <row r="180" spans="1:20">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="14"/>
+      <c r="M180" s="14"/>
+      <c r="N180" s="14"/>
+      <c r="O180" s="14"/>
+      <c r="P180" s="14"/>
+      <c r="Q180" s="14"/>
+      <c r="R180" s="14"/>
+      <c r="S180" s="14"/>
+      <c r="T180" s="7"/>
+    </row>
+    <row r="181" spans="1:20">
+      <c r="A181" s="6"/>
+      <c r="B181" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+      <c r="Q181" s="14"/>
+      <c r="R181" s="14"/>
+      <c r="S181" s="14"/>
+      <c r="T181" s="7"/>
+    </row>
+    <row r="182" spans="1:20">
+      <c r="A182" s="6"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+      <c r="Q182" s="14"/>
+      <c r="R182" s="14"/>
+      <c r="S182" s="14"/>
+      <c r="T182" s="7"/>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="A183" s="6"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14"/>
+      <c r="O183" s="14"/>
+      <c r="P183" s="14"/>
+      <c r="Q183" s="14"/>
+      <c r="R183" s="14"/>
+      <c r="S183" s="14"/>
+      <c r="T183" s="7"/>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="A184" s="6"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14"/>
+      <c r="L184" s="14"/>
+      <c r="M184" s="14"/>
+      <c r="N184" s="14"/>
+      <c r="O184" s="14"/>
+      <c r="P184" s="14"/>
+      <c r="Q184" s="14"/>
+      <c r="R184" s="14"/>
+      <c r="S184" s="14"/>
+      <c r="T184" s="7"/>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" s="6"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14"/>
+      <c r="L185" s="14"/>
+      <c r="M185" s="14"/>
+      <c r="N185" s="14"/>
+      <c r="O185" s="14"/>
+      <c r="P185" s="14"/>
+      <c r="Q185" s="14"/>
+      <c r="R185" s="14"/>
+      <c r="S185" s="14"/>
+      <c r="T185" s="7"/>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" s="6"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="14"/>
+      <c r="O186" s="14"/>
+      <c r="P186" s="14"/>
+      <c r="Q186" s="14"/>
+      <c r="R186" s="14"/>
+      <c r="S186" s="14"/>
+      <c r="T186" s="7"/>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" s="6"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14"/>
+      <c r="L187" s="14"/>
+      <c r="M187" s="14"/>
+      <c r="N187" s="14"/>
+      <c r="O187" s="14"/>
+      <c r="P187" s="14"/>
+      <c r="Q187" s="14"/>
+      <c r="R187" s="14"/>
+      <c r="S187" s="14"/>
+      <c r="T187" s="7"/>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="A188" s="6"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="14"/>
+      <c r="K188" s="14"/>
+      <c r="L188" s="14"/>
+      <c r="M188" s="14"/>
+      <c r="N188" s="14"/>
+      <c r="O188" s="14"/>
+      <c r="P188" s="14"/>
+      <c r="Q188" s="14"/>
+      <c r="R188" s="14"/>
+      <c r="S188" s="14"/>
+      <c r="T188" s="7"/>
+    </row>
+    <row r="189" spans="1:20">
+      <c r="A189" s="6"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+      <c r="J189" s="14"/>
+      <c r="K189" s="14"/>
+      <c r="L189" s="14"/>
+      <c r="M189" s="14"/>
+      <c r="N189" s="14"/>
+      <c r="O189" s="14"/>
+      <c r="P189" s="14"/>
+      <c r="Q189" s="14"/>
+      <c r="R189" s="14"/>
+      <c r="S189" s="14"/>
+      <c r="T189" s="7"/>
+    </row>
+    <row r="190" spans="1:20">
+      <c r="A190" s="6"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="14"/>
+      <c r="K190" s="14"/>
+      <c r="L190" s="14"/>
+      <c r="M190" s="14"/>
+      <c r="N190" s="14"/>
+      <c r="O190" s="14"/>
+      <c r="P190" s="14"/>
+      <c r="Q190" s="14"/>
+      <c r="R190" s="14"/>
+      <c r="S190" s="14"/>
+      <c r="T190" s="7"/>
+    </row>
+    <row r="191" spans="1:20">
+      <c r="A191" s="6"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="14"/>
+      <c r="N191" s="14"/>
+      <c r="O191" s="14"/>
+      <c r="P191" s="14"/>
+      <c r="Q191" s="14"/>
+      <c r="R191" s="14"/>
+      <c r="S191" s="14"/>
+      <c r="T191" s="7"/>
+    </row>
+    <row r="192" spans="1:20">
+      <c r="A192" s="6"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="14"/>
+      <c r="K192" s="14"/>
+      <c r="L192" s="14"/>
+      <c r="M192" s="14"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="14"/>
+      <c r="P192" s="14"/>
+      <c r="Q192" s="14"/>
+      <c r="R192" s="14"/>
+      <c r="S192" s="14"/>
+      <c r="T192" s="7"/>
+    </row>
+    <row r="193" spans="1:20">
+      <c r="A193" s="6"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="14"/>
+      <c r="K193" s="14"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="14"/>
+      <c r="N193" s="14"/>
+      <c r="O193" s="14"/>
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
+      <c r="R193" s="14"/>
+      <c r="S193" s="14"/>
+      <c r="T193" s="7"/>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="A194" s="6"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="14"/>
+      <c r="J194" s="14"/>
+      <c r="K194" s="14"/>
+      <c r="L194" s="14"/>
+      <c r="M194" s="14"/>
+      <c r="N194" s="14"/>
+      <c r="O194" s="14"/>
+      <c r="P194" s="14"/>
+      <c r="Q194" s="14"/>
+      <c r="R194" s="14"/>
+      <c r="S194" s="14"/>
+      <c r="T194" s="7"/>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="A195" s="6"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="14"/>
+      <c r="J195" s="14"/>
+      <c r="K195" s="14"/>
+      <c r="L195" s="14"/>
+      <c r="M195" s="14"/>
+      <c r="N195" s="14"/>
+      <c r="O195" s="14"/>
+      <c r="P195" s="14"/>
+      <c r="Q195" s="14"/>
+      <c r="R195" s="14"/>
+      <c r="S195" s="14"/>
+      <c r="T195" s="7"/>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="A196" s="6"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="14"/>
+      <c r="L196" s="14"/>
+      <c r="M196" s="14"/>
+      <c r="N196" s="14"/>
+      <c r="O196" s="14"/>
+      <c r="P196" s="14"/>
+      <c r="Q196" s="14"/>
+      <c r="R196" s="14"/>
+      <c r="S196" s="14"/>
+      <c r="T196" s="7"/>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" s="6"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="14"/>
+      <c r="J197" s="14"/>
+      <c r="K197" s="14"/>
+      <c r="L197" s="14"/>
+      <c r="M197" s="14"/>
+      <c r="N197" s="14"/>
+      <c r="O197" s="14"/>
+      <c r="P197" s="14"/>
+      <c r="Q197" s="14"/>
+      <c r="R197" s="14"/>
+      <c r="S197" s="14"/>
+      <c r="T197" s="7"/>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="A198" s="6"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="14"/>
+      <c r="K198" s="14"/>
+      <c r="L198" s="14"/>
+      <c r="M198" s="14"/>
+      <c r="N198" s="14"/>
+      <c r="O198" s="14"/>
+      <c r="P198" s="14"/>
+      <c r="Q198" s="14"/>
+      <c r="R198" s="14"/>
+      <c r="S198" s="14"/>
+      <c r="T198" s="7"/>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="A199" s="6"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="14"/>
+      <c r="J199" s="14"/>
+      <c r="K199" s="14"/>
+      <c r="L199" s="14"/>
+      <c r="M199" s="14"/>
+      <c r="N199" s="14"/>
+      <c r="O199" s="14"/>
+      <c r="P199" s="14"/>
+      <c r="Q199" s="14"/>
+      <c r="R199" s="14"/>
+      <c r="S199" s="14"/>
+      <c r="T199" s="7"/>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" s="6"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="14"/>
+      <c r="J200" s="14"/>
+      <c r="K200" s="14"/>
+      <c r="L200" s="14"/>
+      <c r="M200" s="14"/>
+      <c r="N200" s="14"/>
+      <c r="O200" s="14"/>
+      <c r="P200" s="14"/>
+      <c r="Q200" s="14"/>
+      <c r="R200" s="14"/>
+      <c r="S200" s="14"/>
+      <c r="T200" s="7"/>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="6"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14"/>
+      <c r="J201" s="14"/>
+      <c r="K201" s="14"/>
+      <c r="L201" s="14"/>
+      <c r="M201" s="14"/>
+      <c r="N201" s="14"/>
+      <c r="O201" s="14"/>
+      <c r="P201" s="14"/>
+      <c r="Q201" s="14"/>
+      <c r="R201" s="14"/>
+      <c r="S201" s="14"/>
+      <c r="T201" s="7"/>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" s="6"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14"/>
+      <c r="J202" s="14"/>
+      <c r="K202" s="14"/>
+      <c r="L202" s="14"/>
+      <c r="M202" s="14"/>
+      <c r="N202" s="14"/>
+      <c r="O202" s="14"/>
+      <c r="P202" s="14"/>
+      <c r="Q202" s="14"/>
+      <c r="R202" s="14"/>
+      <c r="S202" s="14"/>
+      <c r="T202" s="7"/>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" s="6"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="14"/>
+      <c r="K203" s="14"/>
+      <c r="L203" s="14"/>
+      <c r="M203" s="14"/>
+      <c r="N203" s="14"/>
+      <c r="O203" s="14"/>
+      <c r="P203" s="14"/>
+      <c r="Q203" s="14"/>
+      <c r="R203" s="14"/>
+      <c r="S203" s="14"/>
+      <c r="T203" s="7"/>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" s="6"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="14"/>
+      <c r="J204" s="14"/>
+      <c r="K204" s="14"/>
+      <c r="L204" s="14"/>
+      <c r="M204" s="14"/>
+      <c r="N204" s="14"/>
+      <c r="O204" s="14"/>
+      <c r="P204" s="14"/>
+      <c r="Q204" s="14"/>
+      <c r="R204" s="14"/>
+      <c r="S204" s="14"/>
+      <c r="T204" s="7"/>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" s="6"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="14"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="14"/>
+      <c r="N205" s="14"/>
+      <c r="O205" s="14"/>
+      <c r="P205" s="14"/>
+      <c r="Q205" s="14"/>
+      <c r="R205" s="14"/>
+      <c r="S205" s="14"/>
+      <c r="T205" s="7"/>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" s="6"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="14"/>
+      <c r="J206" s="14"/>
+      <c r="K206" s="14"/>
+      <c r="L206" s="14"/>
+      <c r="M206" s="14"/>
+      <c r="N206" s="14"/>
+      <c r="O206" s="14"/>
+      <c r="P206" s="14"/>
+      <c r="Q206" s="14"/>
+      <c r="R206" s="14"/>
+      <c r="S206" s="14"/>
+      <c r="T206" s="7"/>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" s="6"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="14"/>
+      <c r="J207" s="14"/>
+      <c r="K207" s="14"/>
+      <c r="L207" s="14"/>
+      <c r="M207" s="14"/>
+      <c r="N207" s="14"/>
+      <c r="O207" s="14"/>
+      <c r="P207" s="14"/>
+      <c r="Q207" s="14"/>
+      <c r="R207" s="14"/>
+      <c r="S207" s="14"/>
+      <c r="T207" s="7"/>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" s="6"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
+      <c r="K208" s="14"/>
+      <c r="L208" s="14"/>
+      <c r="M208" s="14"/>
+      <c r="N208" s="14"/>
+      <c r="O208" s="14"/>
+      <c r="P208" s="14"/>
+      <c r="Q208" s="14"/>
+      <c r="R208" s="14"/>
+      <c r="S208" s="14"/>
+      <c r="T208" s="7"/>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" s="6"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="14"/>
+      <c r="K209" s="14"/>
+      <c r="L209" s="14"/>
+      <c r="M209" s="14"/>
+      <c r="N209" s="14"/>
+      <c r="O209" s="14"/>
+      <c r="P209" s="14"/>
+      <c r="Q209" s="14"/>
+      <c r="R209" s="14"/>
+      <c r="S209" s="14"/>
+      <c r="T209" s="7"/>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" s="6"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="14"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="14"/>
+      <c r="L210" s="14"/>
+      <c r="M210" s="14"/>
+      <c r="N210" s="14"/>
+      <c r="O210" s="14"/>
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+      <c r="R210" s="14"/>
+      <c r="S210" s="14"/>
+      <c r="T210" s="7"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" s="6"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="14"/>
+      <c r="J211" s="14"/>
+      <c r="K211" s="14"/>
+      <c r="L211" s="14"/>
+      <c r="M211" s="14"/>
+      <c r="N211" s="14"/>
+      <c r="O211" s="14"/>
+      <c r="P211" s="14"/>
+      <c r="Q211" s="14"/>
+      <c r="R211" s="14"/>
+      <c r="S211" s="14"/>
+      <c r="T211" s="7"/>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="A212" s="6"/>
+      <c r="B212" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="14"/>
+      <c r="J212" s="14"/>
+      <c r="K212" s="14"/>
+      <c r="L212" s="14"/>
+      <c r="M212" s="14"/>
+      <c r="N212" s="14"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="14"/>
+      <c r="Q212" s="14"/>
+      <c r="R212" s="14"/>
+      <c r="S212" s="14"/>
+      <c r="T212" s="7"/>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" s="6"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="14"/>
+      <c r="J213" s="14"/>
+      <c r="K213" s="14"/>
+      <c r="L213" s="14"/>
+      <c r="M213" s="14"/>
+      <c r="N213" s="14"/>
+      <c r="O213" s="14"/>
+      <c r="P213" s="14"/>
+      <c r="Q213" s="14"/>
+      <c r="R213" s="14"/>
+      <c r="S213" s="14"/>
+      <c r="T213" s="7"/>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" s="6"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="14"/>
+      <c r="J214" s="14"/>
+      <c r="K214" s="14"/>
+      <c r="L214" s="14"/>
+      <c r="M214" s="14"/>
+      <c r="N214" s="14"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="14"/>
+      <c r="Q214" s="14"/>
+      <c r="R214" s="14"/>
+      <c r="S214" s="14"/>
+      <c r="T214" s="7"/>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="A215" s="6"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="14"/>
+      <c r="J215" s="14"/>
+      <c r="K215" s="14"/>
+      <c r="L215" s="14"/>
+      <c r="M215" s="14"/>
+      <c r="N215" s="14"/>
+      <c r="O215" s="14"/>
+      <c r="P215" s="14"/>
+      <c r="Q215" s="14"/>
+      <c r="R215" s="14"/>
+      <c r="S215" s="14"/>
+      <c r="T215" s="7"/>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" s="6"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="14"/>
+      <c r="J216" s="14"/>
+      <c r="K216" s="14"/>
+      <c r="L216" s="14"/>
+      <c r="M216" s="14"/>
+      <c r="N216" s="14"/>
+      <c r="O216" s="14"/>
+      <c r="P216" s="14"/>
+      <c r="Q216" s="14"/>
+      <c r="R216" s="14"/>
+      <c r="S216" s="14"/>
+      <c r="T216" s="7"/>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="6"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="14"/>
+      <c r="J217" s="14"/>
+      <c r="K217" s="14"/>
+      <c r="L217" s="14"/>
+      <c r="M217" s="14"/>
+      <c r="N217" s="14"/>
+      <c r="O217" s="14"/>
+      <c r="P217" s="14"/>
+      <c r="Q217" s="14"/>
+      <c r="R217" s="14"/>
+      <c r="S217" s="14"/>
+      <c r="T217" s="7"/>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="6"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="14"/>
+      <c r="J218" s="14"/>
+      <c r="K218" s="14"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="14"/>
+      <c r="N218" s="14"/>
+      <c r="O218" s="14"/>
+      <c r="P218" s="14"/>
+      <c r="Q218" s="14"/>
+      <c r="R218" s="14"/>
+      <c r="S218" s="14"/>
+      <c r="T218" s="7"/>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="6"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="14"/>
+      <c r="J219" s="14"/>
+      <c r="K219" s="14"/>
+      <c r="L219" s="14"/>
+      <c r="M219" s="14"/>
+      <c r="N219" s="14"/>
+      <c r="O219" s="14"/>
+      <c r="P219" s="14"/>
+      <c r="Q219" s="14"/>
+      <c r="R219" s="14"/>
+      <c r="S219" s="14"/>
+      <c r="T219" s="7"/>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" s="6"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="14"/>
+      <c r="J220" s="14"/>
+      <c r="K220" s="14"/>
+      <c r="L220" s="14"/>
+      <c r="M220" s="14"/>
+      <c r="N220" s="14"/>
+      <c r="O220" s="14"/>
+      <c r="P220" s="14"/>
+      <c r="Q220" s="14"/>
+      <c r="R220" s="14"/>
+      <c r="S220" s="14"/>
+      <c r="T220" s="7"/>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="A221" s="6"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
+      <c r="K221" s="14"/>
+      <c r="L221" s="14"/>
+      <c r="M221" s="14"/>
+      <c r="N221" s="14"/>
+      <c r="O221" s="14"/>
+      <c r="P221" s="14"/>
+      <c r="Q221" s="14"/>
+      <c r="R221" s="14"/>
+      <c r="S221" s="14"/>
+      <c r="T221" s="7"/>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" s="6"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="14"/>
+      <c r="J222" s="14"/>
+      <c r="K222" s="14"/>
+      <c r="L222" s="14"/>
+      <c r="M222" s="14"/>
+      <c r="N222" s="14"/>
+      <c r="O222" s="14"/>
+      <c r="P222" s="14"/>
+      <c r="Q222" s="14"/>
+      <c r="R222" s="14"/>
+      <c r="S222" s="14"/>
+      <c r="T222" s="7"/>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="A223" s="6"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="14"/>
+      <c r="J223" s="14"/>
+      <c r="K223" s="14"/>
+      <c r="L223" s="14"/>
+      <c r="M223" s="14"/>
+      <c r="N223" s="14"/>
+      <c r="O223" s="14"/>
+      <c r="P223" s="14"/>
+      <c r="Q223" s="14"/>
+      <c r="R223" s="14"/>
+      <c r="S223" s="14"/>
+      <c r="T223" s="7"/>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="A224" s="6"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="14"/>
+      <c r="J224" s="14"/>
+      <c r="K224" s="14"/>
+      <c r="L224" s="14"/>
+      <c r="M224" s="14"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="14"/>
+      <c r="Q224" s="14"/>
+      <c r="R224" s="14"/>
+      <c r="S224" s="14"/>
+      <c r="T224" s="7"/>
+    </row>
+    <row r="225" spans="1:20">
+      <c r="A225" s="6"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="14"/>
+      <c r="J225" s="14"/>
+      <c r="K225" s="14"/>
+      <c r="L225" s="14"/>
+      <c r="M225" s="14"/>
+      <c r="N225" s="14"/>
+      <c r="O225" s="14"/>
+      <c r="P225" s="14"/>
+      <c r="Q225" s="14"/>
+      <c r="R225" s="14"/>
+      <c r="S225" s="14"/>
+      <c r="T225" s="7"/>
+    </row>
+    <row r="226" spans="1:20">
+      <c r="A226" s="6"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="14"/>
+      <c r="J226" s="14"/>
+      <c r="K226" s="14"/>
+      <c r="L226" s="14"/>
+      <c r="M226" s="14"/>
+      <c r="N226" s="14"/>
+      <c r="O226" s="14"/>
+      <c r="P226" s="14"/>
+      <c r="Q226" s="14"/>
+      <c r="R226" s="14"/>
+      <c r="S226" s="14"/>
+      <c r="T226" s="7"/>
+    </row>
+    <row r="227" spans="1:20">
+      <c r="A227" s="6"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="14"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="14"/>
+      <c r="J227" s="14"/>
+      <c r="K227" s="14"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="14"/>
+      <c r="N227" s="14"/>
+      <c r="O227" s="14"/>
+      <c r="P227" s="14"/>
+      <c r="Q227" s="14"/>
+      <c r="R227" s="14"/>
+      <c r="S227" s="14"/>
+      <c r="T227" s="7"/>
+    </row>
+    <row r="228" spans="1:20">
+      <c r="A228" s="6"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="14"/>
+      <c r="J228" s="14"/>
+      <c r="K228" s="14"/>
+      <c r="L228" s="14"/>
+      <c r="M228" s="14"/>
+      <c r="N228" s="14"/>
+      <c r="O228" s="14"/>
+      <c r="P228" s="14"/>
+      <c r="Q228" s="14"/>
+      <c r="R228" s="14"/>
+      <c r="S228" s="14"/>
+      <c r="T228" s="7"/>
+    </row>
+    <row r="229" spans="1:20">
+      <c r="A229" s="6"/>
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="14"/>
+      <c r="J229" s="14"/>
+      <c r="K229" s="14"/>
+      <c r="L229" s="14"/>
+      <c r="M229" s="14"/>
+      <c r="N229" s="14"/>
+      <c r="O229" s="14"/>
+      <c r="P229" s="14"/>
+      <c r="Q229" s="14"/>
+      <c r="R229" s="14"/>
+      <c r="S229" s="14"/>
+      <c r="T229" s="7"/>
+    </row>
+    <row r="230" spans="1:20">
+      <c r="A230" s="6"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="14"/>
+      <c r="J230" s="14"/>
+      <c r="K230" s="14"/>
+      <c r="L230" s="14"/>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14"/>
+      <c r="O230" s="14"/>
+      <c r="P230" s="14"/>
+      <c r="Q230" s="14"/>
+      <c r="R230" s="14"/>
+      <c r="S230" s="14"/>
+      <c r="T230" s="7"/>
+    </row>
+    <row r="231" spans="1:20">
+      <c r="A231" s="6"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="14"/>
+      <c r="J231" s="14"/>
+      <c r="K231" s="14"/>
+      <c r="L231" s="14"/>
+      <c r="M231" s="14"/>
+      <c r="N231" s="14"/>
+      <c r="O231" s="14"/>
+      <c r="P231" s="14"/>
+      <c r="Q231" s="14"/>
+      <c r="R231" s="14"/>
+      <c r="S231" s="14"/>
+      <c r="T231" s="7"/>
+    </row>
+    <row r="232" spans="1:20">
+      <c r="A232" s="6"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
+      <c r="K232" s="14"/>
+      <c r="L232" s="14"/>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
+      <c r="P232" s="14"/>
+      <c r="Q232" s="14"/>
+      <c r="R232" s="14"/>
+      <c r="S232" s="14"/>
+      <c r="T232" s="7"/>
+    </row>
+    <row r="233" spans="1:20">
+      <c r="A233" s="6"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="14"/>
+      <c r="L233" s="14"/>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
+      <c r="P233" s="14"/>
+      <c r="Q233" s="14"/>
+      <c r="R233" s="14"/>
+      <c r="S233" s="14"/>
+      <c r="T233" s="7"/>
+    </row>
+    <row r="234" spans="1:20">
+      <c r="A234" s="6"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="14"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="14"/>
+      <c r="L234" s="14"/>
+      <c r="M234" s="14"/>
+      <c r="N234" s="14"/>
+      <c r="O234" s="14"/>
+      <c r="P234" s="14"/>
+      <c r="Q234" s="14"/>
+      <c r="R234" s="14"/>
+      <c r="S234" s="14"/>
+      <c r="T234" s="7"/>
+    </row>
+    <row r="235" spans="1:20">
+      <c r="A235" s="6"/>
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="14"/>
+      <c r="J235" s="14"/>
+      <c r="K235" s="14"/>
+      <c r="L235" s="14"/>
+      <c r="M235" s="14"/>
+      <c r="N235" s="14"/>
+      <c r="O235" s="14"/>
+      <c r="P235" s="14"/>
+      <c r="Q235" s="14"/>
+      <c r="R235" s="14"/>
+      <c r="S235" s="14"/>
+      <c r="T235" s="7"/>
+    </row>
+    <row r="236" spans="1:20">
+      <c r="A236" s="6"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="14"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="14"/>
+      <c r="N236" s="14"/>
+      <c r="O236" s="14"/>
+      <c r="P236" s="14"/>
+      <c r="Q236" s="14"/>
+      <c r="R236" s="14"/>
+      <c r="S236" s="14"/>
+      <c r="T236" s="7"/>
+    </row>
+    <row r="237" spans="1:20">
+      <c r="A237" s="6"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="14"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="14"/>
+      <c r="L237" s="14"/>
+      <c r="M237" s="14"/>
+      <c r="N237" s="14"/>
+      <c r="O237" s="14"/>
+      <c r="P237" s="14"/>
+      <c r="Q237" s="14"/>
+      <c r="R237" s="14"/>
+      <c r="S237" s="14"/>
+      <c r="T237" s="7"/>
+    </row>
+    <row r="238" spans="1:20">
+      <c r="A238" s="6"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="14"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+      <c r="L238" s="14"/>
+      <c r="M238" s="14"/>
+      <c r="N238" s="14"/>
+      <c r="O238" s="14"/>
+      <c r="P238" s="14"/>
+      <c r="Q238" s="14"/>
+      <c r="R238" s="14"/>
+      <c r="S238" s="14"/>
+      <c r="T238" s="7"/>
+    </row>
+    <row r="239" spans="1:20">
+      <c r="A239" s="6"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="14"/>
+      <c r="M239" s="14"/>
+      <c r="N239" s="14"/>
+      <c r="O239" s="14"/>
+      <c r="P239" s="14"/>
+      <c r="Q239" s="14"/>
+      <c r="R239" s="14"/>
+      <c r="S239" s="14"/>
+      <c r="T239" s="7"/>
+    </row>
+    <row r="240" spans="1:20">
+      <c r="A240" s="6"/>
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="14"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="14"/>
+      <c r="L240" s="14"/>
+      <c r="M240" s="14"/>
+      <c r="N240" s="14"/>
+      <c r="O240" s="14"/>
+      <c r="P240" s="14"/>
+      <c r="Q240" s="14"/>
+      <c r="R240" s="14"/>
+      <c r="S240" s="14"/>
+      <c r="T240" s="7"/>
+    </row>
+    <row r="241" spans="1:20">
+      <c r="A241" s="6"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="14"/>
+      <c r="J241" s="14"/>
+      <c r="K241" s="14"/>
+      <c r="L241" s="14"/>
+      <c r="M241" s="14"/>
+      <c r="N241" s="14"/>
+      <c r="O241" s="14"/>
+      <c r="P241" s="14"/>
+      <c r="Q241" s="14"/>
+      <c r="R241" s="14"/>
+      <c r="S241" s="14"/>
+      <c r="T241" s="7"/>
+    </row>
+    <row r="242" spans="1:20">
+      <c r="A242" s="6"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
+      <c r="M242" s="14"/>
+      <c r="N242" s="14"/>
+      <c r="O242" s="14"/>
+      <c r="P242" s="14"/>
+      <c r="Q242" s="14"/>
+      <c r="R242" s="14"/>
+      <c r="S242" s="14"/>
+      <c r="T242" s="7"/>
+    </row>
+    <row r="243" spans="1:20">
+      <c r="A243" s="6"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="14"/>
+      <c r="L243" s="14"/>
+      <c r="M243" s="14"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
+      <c r="P243" s="14"/>
+      <c r="Q243" s="14"/>
+      <c r="R243" s="14"/>
+      <c r="S243" s="14"/>
+      <c r="T243" s="7"/>
+    </row>
+    <row r="244" spans="1:20">
+      <c r="A244" s="6"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="14"/>
+      <c r="L244" s="14"/>
+      <c r="M244" s="14"/>
+      <c r="N244" s="14"/>
+      <c r="O244" s="14"/>
+      <c r="P244" s="14"/>
+      <c r="Q244" s="14"/>
+      <c r="R244" s="14"/>
+      <c r="S244" s="14"/>
+      <c r="T244" s="7"/>
+    </row>
+    <row r="245" spans="1:20">
+      <c r="A245" s="6"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="14"/>
+      <c r="M245" s="14"/>
+      <c r="N245" s="14"/>
+      <c r="O245" s="14"/>
+      <c r="P245" s="14"/>
+      <c r="Q245" s="14"/>
+      <c r="R245" s="14"/>
+      <c r="S245" s="14"/>
+      <c r="T245" s="7"/>
+    </row>
+    <row r="246" spans="1:20">
+      <c r="A246" s="6"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="14"/>
+      <c r="L246" s="14"/>
+      <c r="M246" s="14"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="14"/>
+      <c r="P246" s="14"/>
+      <c r="Q246" s="14"/>
+      <c r="R246" s="14"/>
+      <c r="S246" s="14"/>
+      <c r="T246" s="7"/>
+    </row>
+    <row r="247" spans="1:20">
+      <c r="A247" s="6"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="14"/>
+      <c r="L247" s="14"/>
+      <c r="M247" s="14"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="14"/>
+      <c r="P247" s="14"/>
+      <c r="Q247" s="14"/>
+      <c r="R247" s="14"/>
+      <c r="S247" s="14"/>
+      <c r="T247" s="7"/>
+    </row>
+    <row r="248" spans="1:20">
+      <c r="A248" s="6"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="14"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="14"/>
+      <c r="P248" s="14"/>
+      <c r="Q248" s="14"/>
+      <c r="R248" s="14"/>
+      <c r="S248" s="14"/>
+      <c r="T248" s="7"/>
+    </row>
+    <row r="249" spans="1:20">
+      <c r="A249" s="6"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="14"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="14"/>
+      <c r="P249" s="14"/>
+      <c r="Q249" s="14"/>
+      <c r="R249" s="14"/>
+      <c r="S249" s="14"/>
+      <c r="T249" s="7"/>
+    </row>
+    <row r="250" spans="1:20">
+      <c r="A250" s="6"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="14"/>
+      <c r="N250" s="14"/>
+      <c r="O250" s="14"/>
+      <c r="P250" s="14"/>
+      <c r="Q250" s="14"/>
+      <c r="R250" s="14"/>
+      <c r="S250" s="14"/>
+      <c r="T250" s="7"/>
+    </row>
+    <row r="251" spans="1:20">
+      <c r="A251" s="6"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="14"/>
+      <c r="M251" s="14"/>
+      <c r="N251" s="14"/>
+      <c r="O251" s="14"/>
+      <c r="P251" s="14"/>
+      <c r="Q251" s="14"/>
+      <c r="R251" s="14"/>
+      <c r="S251" s="14"/>
+      <c r="T251" s="7"/>
+    </row>
+    <row r="252" spans="1:20">
+      <c r="A252" s="6"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
+      <c r="L252" s="14"/>
+      <c r="M252" s="14"/>
+      <c r="N252" s="14"/>
+      <c r="O252" s="14"/>
+      <c r="P252" s="14"/>
+      <c r="Q252" s="14"/>
+      <c r="R252" s="14"/>
+      <c r="S252" s="14"/>
+      <c r="T252" s="7"/>
+    </row>
+    <row r="253" spans="1:20">
+      <c r="A253" s="6"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
+      <c r="K253" s="14"/>
+      <c r="L253" s="14"/>
+      <c r="M253" s="14"/>
+      <c r="N253" s="14"/>
+      <c r="O253" s="14"/>
+      <c r="P253" s="14"/>
+      <c r="Q253" s="14"/>
+      <c r="R253" s="14"/>
+      <c r="S253" s="14"/>
+      <c r="T253" s="7"/>
+    </row>
+    <row r="254" spans="1:20">
+      <c r="A254" s="6"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="14"/>
+      <c r="L254" s="14"/>
+      <c r="M254" s="14"/>
+      <c r="N254" s="14"/>
+      <c r="O254" s="14"/>
+      <c r="P254" s="14"/>
+      <c r="Q254" s="14"/>
+      <c r="R254" s="14"/>
+      <c r="S254" s="14"/>
+      <c r="T254" s="7"/>
+    </row>
+    <row r="255" spans="1:20">
+      <c r="A255" s="6"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="14"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="14"/>
+      <c r="L255" s="14"/>
+      <c r="M255" s="14"/>
+      <c r="N255" s="14"/>
+      <c r="O255" s="14"/>
+      <c r="P255" s="14"/>
+      <c r="Q255" s="14"/>
+      <c r="R255" s="14"/>
+      <c r="S255" s="14"/>
+      <c r="T255" s="7"/>
+    </row>
+    <row r="256" spans="1:20">
+      <c r="A256" s="6"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="14"/>
+      <c r="L256" s="14"/>
+      <c r="M256" s="14"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="14"/>
+      <c r="P256" s="14"/>
+      <c r="Q256" s="14"/>
+      <c r="R256" s="14"/>
+      <c r="S256" s="14"/>
+      <c r="T256" s="7"/>
+    </row>
+    <row r="257" spans="1:20">
+      <c r="A257" s="6"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="14"/>
+      <c r="F257" s="14"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="14"/>
+      <c r="L257" s="14"/>
+      <c r="M257" s="14"/>
+      <c r="N257" s="14"/>
+      <c r="O257" s="14"/>
+      <c r="P257" s="14"/>
+      <c r="Q257" s="14"/>
+      <c r="R257" s="14"/>
+      <c r="S257" s="14"/>
+      <c r="T257" s="7"/>
+    </row>
+    <row r="258" spans="1:20">
+      <c r="A258" s="6"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="14"/>
+      <c r="L258" s="14"/>
+      <c r="M258" s="14"/>
+      <c r="N258" s="14"/>
+      <c r="O258" s="14"/>
+      <c r="P258" s="14"/>
+      <c r="Q258" s="14"/>
+      <c r="R258" s="14"/>
+      <c r="S258" s="14"/>
+      <c r="T258" s="7"/>
+    </row>
+    <row r="259" spans="1:20">
+      <c r="A259" s="6"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="14"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="14"/>
+      <c r="L259" s="14"/>
+      <c r="M259" s="14"/>
+      <c r="N259" s="14"/>
+      <c r="O259" s="14"/>
+      <c r="P259" s="14"/>
+      <c r="Q259" s="14"/>
+      <c r="R259" s="14"/>
+      <c r="S259" s="14"/>
+      <c r="T259" s="7"/>
+    </row>
+    <row r="260" spans="1:20">
+      <c r="A260" s="6"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="14"/>
+      <c r="L260" s="14"/>
+      <c r="M260" s="14"/>
+      <c r="N260" s="14"/>
+      <c r="O260" s="14"/>
+      <c r="P260" s="14"/>
+      <c r="Q260" s="14"/>
+      <c r="R260" s="14"/>
+      <c r="S260" s="14"/>
+      <c r="T260" s="7"/>
+    </row>
+    <row r="261" spans="1:20">
+      <c r="A261" s="6"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="14"/>
+      <c r="L261" s="14"/>
+      <c r="M261" s="14"/>
+      <c r="N261" s="14"/>
+      <c r="O261" s="14"/>
+      <c r="P261" s="14"/>
+      <c r="Q261" s="14"/>
+      <c r="R261" s="14"/>
+      <c r="S261" s="14"/>
+      <c r="T261" s="7"/>
+    </row>
+    <row r="262" spans="1:20">
+      <c r="A262" s="6"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="14"/>
+      <c r="J262" s="14"/>
+      <c r="K262" s="14"/>
+      <c r="L262" s="14"/>
+      <c r="M262" s="14"/>
+      <c r="N262" s="14"/>
+      <c r="O262" s="14"/>
+      <c r="P262" s="14"/>
+      <c r="Q262" s="14"/>
+      <c r="R262" s="14"/>
+      <c r="S262" s="14"/>
+      <c r="T262" s="7"/>
+    </row>
+    <row r="263" spans="1:20">
+      <c r="A263" s="6"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="14"/>
+      <c r="J263" s="14"/>
+      <c r="K263" s="14"/>
+      <c r="L263" s="14"/>
+      <c r="M263" s="14"/>
+      <c r="N263" s="14"/>
+      <c r="O263" s="14"/>
+      <c r="P263" s="14"/>
+      <c r="Q263" s="14"/>
+      <c r="R263" s="14"/>
+      <c r="S263" s="14"/>
+      <c r="T263" s="7"/>
+    </row>
+    <row r="264" spans="1:20">
+      <c r="A264" s="6"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="14"/>
+      <c r="L264" s="14"/>
+      <c r="M264" s="14"/>
+      <c r="N264" s="14"/>
+      <c r="O264" s="14"/>
+      <c r="P264" s="14"/>
+      <c r="Q264" s="14"/>
+      <c r="R264" s="14"/>
+      <c r="S264" s="14"/>
+      <c r="T264" s="7"/>
+    </row>
+    <row r="265" spans="1:20">
+      <c r="A265" s="6"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
+      <c r="K265" s="14"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="14"/>
+      <c r="N265" s="14"/>
+      <c r="O265" s="14"/>
+      <c r="P265" s="14"/>
+      <c r="Q265" s="14"/>
+      <c r="R265" s="14"/>
+      <c r="S265" s="14"/>
+      <c r="T265" s="7"/>
+    </row>
+    <row r="266" spans="1:20">
+      <c r="A266" s="6"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="14"/>
+      <c r="J266" s="14"/>
+      <c r="K266" s="14"/>
+      <c r="L266" s="14"/>
+      <c r="M266" s="14"/>
+      <c r="N266" s="14"/>
+      <c r="O266" s="14"/>
+      <c r="P266" s="14"/>
+      <c r="Q266" s="14"/>
+      <c r="R266" s="14"/>
+      <c r="S266" s="14"/>
+      <c r="T266" s="7"/>
+    </row>
+    <row r="267" spans="1:20">
+      <c r="A267" s="6"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="14"/>
+      <c r="J267" s="14"/>
+      <c r="K267" s="14"/>
+      <c r="L267" s="14"/>
+      <c r="M267" s="14"/>
+      <c r="N267" s="14"/>
+      <c r="O267" s="14"/>
+      <c r="P267" s="14"/>
+      <c r="Q267" s="14"/>
+      <c r="R267" s="14"/>
+      <c r="S267" s="14"/>
+      <c r="T267" s="7"/>
+    </row>
+    <row r="268" spans="1:20">
+      <c r="A268" s="6"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="14"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="14"/>
+      <c r="L268" s="14"/>
+      <c r="M268" s="14"/>
+      <c r="N268" s="14"/>
+      <c r="O268" s="14"/>
+      <c r="P268" s="14"/>
+      <c r="Q268" s="14"/>
+      <c r="R268" s="14"/>
+      <c r="S268" s="14"/>
+      <c r="T268" s="7"/>
+    </row>
+    <row r="269" spans="1:20">
+      <c r="A269" s="6"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="14"/>
+      <c r="J269" s="14"/>
+      <c r="K269" s="14"/>
+      <c r="L269" s="14"/>
+      <c r="M269" s="14"/>
+      <c r="N269" s="14"/>
+      <c r="O269" s="14"/>
+      <c r="P269" s="14"/>
+      <c r="Q269" s="14"/>
+      <c r="R269" s="14"/>
+      <c r="S269" s="14"/>
+      <c r="T269" s="7"/>
+    </row>
+    <row r="270" spans="1:20">
+      <c r="A270" s="6"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="14"/>
+      <c r="J270" s="14"/>
+      <c r="K270" s="14"/>
+      <c r="L270" s="14"/>
+      <c r="M270" s="14"/>
+      <c r="N270" s="14"/>
+      <c r="O270" s="14"/>
+      <c r="P270" s="14"/>
+      <c r="Q270" s="14"/>
+      <c r="R270" s="14"/>
+      <c r="S270" s="14"/>
+      <c r="T270" s="7"/>
+    </row>
+    <row r="271" spans="1:20">
+      <c r="A271" s="6"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="14"/>
+      <c r="J271" s="14"/>
+      <c r="K271" s="14"/>
+      <c r="L271" s="14"/>
+      <c r="M271" s="14"/>
+      <c r="N271" s="14"/>
+      <c r="O271" s="14"/>
+      <c r="P271" s="14"/>
+      <c r="Q271" s="14"/>
+      <c r="R271" s="14"/>
+      <c r="S271" s="14"/>
+      <c r="T271" s="7"/>
+    </row>
+    <row r="272" spans="1:20">
+      <c r="A272" s="6"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="14"/>
+      <c r="J272" s="14"/>
+      <c r="K272" s="14"/>
+      <c r="L272" s="14"/>
+      <c r="M272" s="14"/>
+      <c r="N272" s="14"/>
+      <c r="O272" s="14"/>
+      <c r="P272" s="14"/>
+      <c r="Q272" s="14"/>
+      <c r="R272" s="14"/>
+      <c r="S272" s="14"/>
+      <c r="T272" s="7"/>
+    </row>
+    <row r="273" spans="1:20">
+      <c r="A273" s="6"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
+      <c r="J273" s="14"/>
+      <c r="K273" s="14"/>
+      <c r="L273" s="14"/>
+      <c r="M273" s="14"/>
+      <c r="N273" s="14"/>
+      <c r="O273" s="14"/>
+      <c r="P273" s="14"/>
+      <c r="Q273" s="14"/>
+      <c r="R273" s="14"/>
+      <c r="S273" s="14"/>
+      <c r="T273" s="7"/>
+    </row>
+    <row r="274" spans="1:20">
+      <c r="A274" s="6"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="14"/>
+      <c r="J274" s="14"/>
+      <c r="K274" s="14"/>
+      <c r="L274" s="14"/>
+      <c r="M274" s="14"/>
+      <c r="N274" s="14"/>
+      <c r="O274" s="14"/>
+      <c r="P274" s="14"/>
+      <c r="Q274" s="14"/>
+      <c r="R274" s="14"/>
+      <c r="S274" s="14"/>
+      <c r="T274" s="7"/>
+    </row>
+    <row r="275" spans="1:20">
+      <c r="A275" s="6"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
+      <c r="J275" s="14"/>
+      <c r="K275" s="14"/>
+      <c r="L275" s="14"/>
+      <c r="M275" s="14"/>
+      <c r="N275" s="14"/>
+      <c r="O275" s="14"/>
+      <c r="P275" s="14"/>
+      <c r="Q275" s="14"/>
+      <c r="R275" s="14"/>
+      <c r="S275" s="14"/>
+      <c r="T275" s="7"/>
+    </row>
+    <row r="276" spans="1:20">
+      <c r="A276" s="6"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
+      <c r="J276" s="14"/>
+      <c r="K276" s="14"/>
+      <c r="L276" s="14"/>
+      <c r="M276" s="14"/>
+      <c r="N276" s="14"/>
+      <c r="O276" s="14"/>
+      <c r="P276" s="14"/>
+      <c r="Q276" s="14"/>
+      <c r="R276" s="14"/>
+      <c r="S276" s="14"/>
+      <c r="T276" s="7"/>
+    </row>
+    <row r="277" spans="1:20">
+      <c r="A277" s="6"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
+      <c r="J277" s="14"/>
+      <c r="K277" s="14"/>
+      <c r="L277" s="14"/>
+      <c r="M277" s="14"/>
+      <c r="N277" s="14"/>
+      <c r="O277" s="14"/>
+      <c r="P277" s="14"/>
+      <c r="Q277" s="14"/>
+      <c r="R277" s="14"/>
+      <c r="S277" s="14"/>
+      <c r="T277" s="7"/>
+    </row>
+    <row r="278" spans="1:20">
+      <c r="A278" s="6"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="14"/>
+      <c r="J278" s="14"/>
+      <c r="K278" s="14"/>
+      <c r="L278" s="14"/>
+      <c r="M278" s="14"/>
+      <c r="N278" s="14"/>
+      <c r="O278" s="14"/>
+      <c r="P278" s="14"/>
+      <c r="Q278" s="14"/>
+      <c r="R278" s="14"/>
+      <c r="S278" s="14"/>
+      <c r="T278" s="7"/>
+    </row>
+    <row r="279" spans="1:20">
+      <c r="A279" s="6"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="14"/>
+      <c r="J279" s="14"/>
+      <c r="K279" s="14"/>
+      <c r="L279" s="14"/>
+      <c r="M279" s="14"/>
+      <c r="N279" s="14"/>
+      <c r="O279" s="14"/>
+      <c r="P279" s="14"/>
+      <c r="Q279" s="14"/>
+      <c r="R279" s="14"/>
+      <c r="S279" s="14"/>
+      <c r="T279" s="7"/>
+    </row>
+    <row r="280" spans="1:20">
+      <c r="A280" s="6"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="14"/>
+      <c r="J280" s="14"/>
+      <c r="K280" s="14"/>
+      <c r="L280" s="14"/>
+      <c r="M280" s="14"/>
+      <c r="N280" s="14"/>
+      <c r="O280" s="14"/>
+      <c r="P280" s="14"/>
+      <c r="Q280" s="14"/>
+      <c r="R280" s="14"/>
+      <c r="S280" s="14"/>
+      <c r="T280" s="7"/>
+    </row>
+    <row r="281" spans="1:20">
+      <c r="A281" s="6"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="14"/>
+      <c r="J281" s="14"/>
+      <c r="K281" s="14"/>
+      <c r="L281" s="14"/>
+      <c r="M281" s="14"/>
+      <c r="N281" s="14"/>
+      <c r="O281" s="14"/>
+      <c r="P281" s="14"/>
+      <c r="Q281" s="14"/>
+      <c r="R281" s="14"/>
+      <c r="S281" s="14"/>
+      <c r="T281" s="7"/>
+    </row>
+    <row r="282" spans="1:20">
+      <c r="A282" s="6"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="14"/>
+      <c r="J282" s="14"/>
+      <c r="K282" s="14"/>
+      <c r="L282" s="14"/>
+      <c r="M282" s="14"/>
+      <c r="N282" s="14"/>
+      <c r="O282" s="14"/>
+      <c r="P282" s="14"/>
+      <c r="Q282" s="14"/>
+      <c r="R282" s="14"/>
+      <c r="S282" s="14"/>
+      <c r="T282" s="7"/>
+    </row>
+    <row r="283" spans="1:20">
+      <c r="A283" s="9"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="10"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
+      <c r="I283" s="10"/>
+      <c r="J283" s="10"/>
+      <c r="K283" s="10"/>
+      <c r="L283" s="10"/>
+      <c r="M283" s="10"/>
+      <c r="N283" s="10"/>
+      <c r="O283" s="10"/>
+      <c r="P283" s="10"/>
+      <c r="Q283" s="10"/>
+      <c r="R283" s="10"/>
+      <c r="S283" s="10"/>
+      <c r="T283" s="11"/>
+    </row>
+    <row r="286" spans="1:20">
+      <c r="A286" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
+      <c r="H286" s="4"/>
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="4"/>
+      <c r="N286" s="4"/>
+      <c r="O286" s="4"/>
+      <c r="P286" s="4"/>
+      <c r="Q286" s="4"/>
+      <c r="R286" s="4"/>
+      <c r="S286" s="4"/>
+      <c r="T286" s="5"/>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="A287" s="6"/>
+      <c r="B287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="14"/>
+      <c r="J287" s="14"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
+      <c r="M287" s="14"/>
+      <c r="N287" s="14"/>
+      <c r="O287" s="14"/>
+      <c r="P287" s="14"/>
+      <c r="Q287" s="14"/>
+      <c r="R287" s="14"/>
+      <c r="S287" s="14"/>
+      <c r="T287" s="7"/>
+    </row>
+    <row r="288" spans="1:20">
+      <c r="A288" s="6"/>
+      <c r="B288" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C288" s="10"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="10"/>
+      <c r="F288" s="10"/>
+      <c r="G288" s="10"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="14"/>
+      <c r="J288" s="14"/>
+      <c r="K288" s="14"/>
+      <c r="L288" s="14"/>
+      <c r="M288" s="14"/>
+      <c r="N288" s="14"/>
+      <c r="O288" s="14"/>
+      <c r="P288" s="14"/>
+      <c r="Q288" s="14"/>
+      <c r="R288" s="14"/>
+      <c r="S288" s="14"/>
+      <c r="T288" s="7"/>
+    </row>
+    <row r="289" spans="1:20">
+      <c r="A289" s="6"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="14"/>
+      <c r="L289" s="14"/>
+      <c r="M289" s="14"/>
+      <c r="N289" s="14"/>
+      <c r="O289" s="14"/>
+      <c r="P289" s="14"/>
+      <c r="Q289" s="14"/>
+      <c r="R289" s="14"/>
+      <c r="S289" s="14"/>
+      <c r="T289" s="7"/>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="A290" s="6"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="14"/>
+      <c r="J290" s="14"/>
+      <c r="K290" s="14"/>
+      <c r="L290" s="14"/>
+      <c r="M290" s="14"/>
+      <c r="N290" s="14"/>
+      <c r="O290" s="14"/>
+      <c r="P290" s="14"/>
+      <c r="Q290" s="14"/>
+      <c r="R290" s="14"/>
+      <c r="S290" s="14"/>
+      <c r="T290" s="7"/>
+    </row>
+    <row r="291" spans="1:20">
+      <c r="A291" s="6"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="14"/>
+      <c r="J291" s="14"/>
+      <c r="K291" s="14"/>
+      <c r="L291" s="14"/>
+      <c r="M291" s="14"/>
+      <c r="N291" s="14"/>
+      <c r="O291" s="14"/>
+      <c r="P291" s="14"/>
+      <c r="Q291" s="14"/>
+      <c r="R291" s="14"/>
+      <c r="S291" s="14"/>
+      <c r="T291" s="7"/>
+    </row>
+    <row r="292" spans="1:20">
+      <c r="A292" s="6"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="14"/>
+      <c r="J292" s="14"/>
+      <c r="K292" s="14"/>
+      <c r="L292" s="14"/>
+      <c r="M292" s="14"/>
+      <c r="N292" s="14"/>
+      <c r="O292" s="14"/>
+      <c r="P292" s="14"/>
+      <c r="Q292" s="14"/>
+      <c r="R292" s="14"/>
+      <c r="S292" s="14"/>
+      <c r="T292" s="7"/>
+    </row>
+    <row r="293" spans="1:20">
+      <c r="A293" s="6"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="14"/>
+      <c r="L293" s="14"/>
+      <c r="M293" s="14"/>
+      <c r="N293" s="14"/>
+      <c r="O293" s="14"/>
+      <c r="P293" s="14"/>
+      <c r="Q293" s="14"/>
+      <c r="R293" s="14"/>
+      <c r="S293" s="14"/>
+      <c r="T293" s="7"/>
+    </row>
+    <row r="294" spans="1:20">
+      <c r="A294" s="6"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14"/>
+      <c r="J294" s="14"/>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
+      <c r="M294" s="14"/>
+      <c r="N294" s="14"/>
+      <c r="O294" s="14"/>
+      <c r="P294" s="14"/>
+      <c r="Q294" s="14"/>
+      <c r="R294" s="14"/>
+      <c r="S294" s="14"/>
+      <c r="T294" s="7"/>
+    </row>
+    <row r="295" spans="1:20">
+      <c r="A295" s="6"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
+      <c r="M295" s="14"/>
+      <c r="N295" s="14"/>
+      <c r="O295" s="14"/>
+      <c r="P295" s="14"/>
+      <c r="Q295" s="14"/>
+      <c r="R295" s="14"/>
+      <c r="S295" s="14"/>
+      <c r="T295" s="7"/>
+    </row>
+    <row r="296" spans="1:20">
+      <c r="A296" s="6"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="14"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="14"/>
+      <c r="L296" s="14"/>
+      <c r="M296" s="14"/>
+      <c r="N296" s="14"/>
+      <c r="O296" s="14"/>
+      <c r="P296" s="14"/>
+      <c r="Q296" s="14"/>
+      <c r="R296" s="14"/>
+      <c r="S296" s="14"/>
+      <c r="T296" s="7"/>
+    </row>
+    <row r="297" spans="1:20">
+      <c r="A297" s="6"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="14"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="14"/>
+      <c r="L297" s="14"/>
+      <c r="M297" s="14"/>
+      <c r="N297" s="14"/>
+      <c r="O297" s="14"/>
+      <c r="P297" s="14"/>
+      <c r="Q297" s="14"/>
+      <c r="R297" s="14"/>
+      <c r="S297" s="14"/>
+      <c r="T297" s="7"/>
+    </row>
+    <row r="298" spans="1:20">
+      <c r="A298" s="6"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="14"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="14"/>
+      <c r="L298" s="14"/>
+      <c r="M298" s="14"/>
+      <c r="N298" s="14"/>
+      <c r="O298" s="14"/>
+      <c r="P298" s="14"/>
+      <c r="Q298" s="14"/>
+      <c r="R298" s="14"/>
+      <c r="S298" s="14"/>
+      <c r="T298" s="7"/>
+    </row>
+    <row r="299" spans="1:20">
+      <c r="A299" s="6"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14"/>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="14"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="14"/>
+      <c r="L299" s="14"/>
+      <c r="M299" s="14"/>
+      <c r="N299" s="14"/>
+      <c r="O299" s="14"/>
+      <c r="P299" s="14"/>
+      <c r="Q299" s="14"/>
+      <c r="R299" s="14"/>
+      <c r="S299" s="14"/>
+      <c r="T299" s="7"/>
+    </row>
+    <row r="300" spans="1:20">
+      <c r="A300" s="6"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="14"/>
+      <c r="L300" s="14"/>
+      <c r="M300" s="14"/>
+      <c r="N300" s="14"/>
+      <c r="O300" s="14"/>
+      <c r="P300" s="14"/>
+      <c r="Q300" s="14"/>
+      <c r="R300" s="14"/>
+      <c r="S300" s="14"/>
+      <c r="T300" s="7"/>
+    </row>
+    <row r="301" spans="1:20">
+      <c r="A301" s="6"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="14"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="14"/>
+      <c r="L301" s="14"/>
+      <c r="M301" s="14"/>
+      <c r="N301" s="14"/>
+      <c r="O301" s="14"/>
+      <c r="P301" s="14"/>
+      <c r="Q301" s="14"/>
+      <c r="R301" s="14"/>
+      <c r="S301" s="14"/>
+      <c r="T301" s="7"/>
+    </row>
+    <row r="302" spans="1:20">
+      <c r="A302" s="6"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14"/>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="14"/>
+      <c r="J302" s="14"/>
+      <c r="K302" s="14"/>
+      <c r="L302" s="14"/>
+      <c r="M302" s="14"/>
+      <c r="N302" s="14"/>
+      <c r="O302" s="14"/>
+      <c r="P302" s="14"/>
+      <c r="Q302" s="14"/>
+      <c r="R302" s="14"/>
+      <c r="S302" s="14"/>
+      <c r="T302" s="7"/>
+    </row>
+    <row r="303" spans="1:20">
+      <c r="A303" s="6"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="14"/>
+      <c r="J303" s="14"/>
+      <c r="K303" s="14"/>
+      <c r="L303" s="14"/>
+      <c r="M303" s="14"/>
+      <c r="N303" s="14"/>
+      <c r="O303" s="14"/>
+      <c r="P303" s="14"/>
+      <c r="Q303" s="14"/>
+      <c r="R303" s="14"/>
+      <c r="S303" s="14"/>
+      <c r="T303" s="7"/>
+    </row>
+    <row r="304" spans="1:20">
+      <c r="A304" s="6"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14"/>
+      <c r="J304" s="14"/>
+      <c r="K304" s="14"/>
+      <c r="L304" s="14"/>
+      <c r="M304" s="14"/>
+      <c r="N304" s="14"/>
+      <c r="O304" s="14"/>
+      <c r="P304" s="14"/>
+      <c r="Q304" s="14"/>
+      <c r="R304" s="14"/>
+      <c r="S304" s="14"/>
+      <c r="T304" s="7"/>
+    </row>
+    <row r="305" spans="1:20">
+      <c r="A305" s="6"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14"/>
+      <c r="J305" s="14"/>
+      <c r="K305" s="14"/>
+      <c r="L305" s="14"/>
+      <c r="M305" s="14"/>
+      <c r="N305" s="14"/>
+      <c r="O305" s="14"/>
+      <c r="P305" s="14"/>
+      <c r="Q305" s="14"/>
+      <c r="R305" s="14"/>
+      <c r="S305" s="14"/>
+      <c r="T305" s="7"/>
+    </row>
+    <row r="306" spans="1:20">
+      <c r="A306" s="6"/>
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="14"/>
+      <c r="J306" s="14"/>
+      <c r="K306" s="14"/>
+      <c r="L306" s="14"/>
+      <c r="M306" s="14"/>
+      <c r="N306" s="14"/>
+      <c r="O306" s="14"/>
+      <c r="P306" s="14"/>
+      <c r="Q306" s="14"/>
+      <c r="R306" s="14"/>
+      <c r="S306" s="14"/>
+      <c r="T306" s="7"/>
+    </row>
+    <row r="307" spans="1:20">
+      <c r="A307" s="6"/>
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="14"/>
+      <c r="J307" s="14"/>
+      <c r="K307" s="14"/>
+      <c r="L307" s="14"/>
+      <c r="M307" s="14"/>
+      <c r="N307" s="14"/>
+      <c r="O307" s="14"/>
+      <c r="P307" s="14"/>
+      <c r="Q307" s="14"/>
+      <c r="R307" s="14"/>
+      <c r="S307" s="14"/>
+      <c r="T307" s="7"/>
+    </row>
+    <row r="308" spans="1:20">
+      <c r="A308" s="6"/>
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14"/>
+      <c r="J308" s="14"/>
+      <c r="K308" s="14"/>
+      <c r="L308" s="14"/>
+      <c r="M308" s="14"/>
+      <c r="N308" s="14"/>
+      <c r="O308" s="14"/>
+      <c r="P308" s="14"/>
+      <c r="Q308" s="14"/>
+      <c r="R308" s="14"/>
+      <c r="S308" s="14"/>
+      <c r="T308" s="7"/>
+    </row>
+    <row r="309" spans="1:20">
+      <c r="A309" s="6"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="14"/>
+      <c r="J309" s="14"/>
+      <c r="K309" s="14"/>
+      <c r="L309" s="14"/>
+      <c r="M309" s="14"/>
+      <c r="N309" s="14"/>
+      <c r="O309" s="14"/>
+      <c r="P309" s="14"/>
+      <c r="Q309" s="14"/>
+      <c r="R309" s="14"/>
+      <c r="S309" s="14"/>
+      <c r="T309" s="7"/>
+    </row>
+    <row r="310" spans="1:20">
+      <c r="A310" s="6"/>
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="14"/>
+      <c r="J310" s="14"/>
+      <c r="K310" s="14"/>
+      <c r="L310" s="14"/>
+      <c r="M310" s="14"/>
+      <c r="N310" s="14"/>
+      <c r="O310" s="14"/>
+      <c r="P310" s="14"/>
+      <c r="Q310" s="14"/>
+      <c r="R310" s="14"/>
+      <c r="S310" s="14"/>
+      <c r="T310" s="7"/>
+    </row>
+    <row r="311" spans="1:20">
+      <c r="A311" s="6"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="14"/>
+      <c r="J311" s="14"/>
+      <c r="K311" s="14"/>
+      <c r="L311" s="14"/>
+      <c r="M311" s="14"/>
+      <c r="N311" s="14"/>
+      <c r="O311" s="14"/>
+      <c r="P311" s="14"/>
+      <c r="Q311" s="14"/>
+      <c r="R311" s="14"/>
+      <c r="S311" s="14"/>
+      <c r="T311" s="7"/>
+    </row>
+    <row r="312" spans="1:20">
+      <c r="A312" s="6"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14"/>
+      <c r="J312" s="14"/>
+      <c r="K312" s="14"/>
+      <c r="L312" s="14"/>
+      <c r="M312" s="14"/>
+      <c r="N312" s="14"/>
+      <c r="O312" s="14"/>
+      <c r="P312" s="14"/>
+      <c r="Q312" s="14"/>
+      <c r="R312" s="14"/>
+      <c r="S312" s="14"/>
+      <c r="T312" s="7"/>
+    </row>
+    <row r="313" spans="1:20">
+      <c r="A313" s="6"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14"/>
+      <c r="J313" s="14"/>
+      <c r="K313" s="14"/>
+      <c r="L313" s="14"/>
+      <c r="M313" s="14"/>
+      <c r="N313" s="14"/>
+      <c r="O313" s="14"/>
+      <c r="P313" s="14"/>
+      <c r="Q313" s="14"/>
+      <c r="R313" s="14"/>
+      <c r="S313" s="14"/>
+      <c r="T313" s="7"/>
+    </row>
+    <row r="314" spans="1:20">
+      <c r="A314" s="6"/>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="14"/>
+      <c r="J314" s="14"/>
+      <c r="K314" s="14"/>
+      <c r="L314" s="14"/>
+      <c r="M314" s="14"/>
+      <c r="N314" s="14"/>
+      <c r="O314" s="14"/>
+      <c r="P314" s="14"/>
+      <c r="Q314" s="14"/>
+      <c r="R314" s="14"/>
+      <c r="S314" s="14"/>
+      <c r="T314" s="7"/>
+    </row>
+    <row r="315" spans="1:20">
+      <c r="A315" s="6"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14"/>
+      <c r="J315" s="14"/>
+      <c r="K315" s="14"/>
+      <c r="L315" s="14"/>
+      <c r="M315" s="14"/>
+      <c r="N315" s="14"/>
+      <c r="O315" s="14"/>
+      <c r="P315" s="14"/>
+      <c r="Q315" s="14"/>
+      <c r="R315" s="14"/>
+      <c r="S315" s="14"/>
+      <c r="T315" s="7"/>
+    </row>
+    <row r="316" spans="1:20">
+      <c r="A316" s="6"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="14"/>
+      <c r="L316" s="14"/>
+      <c r="M316" s="14"/>
+      <c r="N316" s="14"/>
+      <c r="O316" s="14"/>
+      <c r="P316" s="14"/>
+      <c r="Q316" s="14"/>
+      <c r="R316" s="14"/>
+      <c r="S316" s="14"/>
+      <c r="T316" s="7"/>
+    </row>
+    <row r="317" spans="1:20">
+      <c r="A317" s="6"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="14"/>
+      <c r="J317" s="14"/>
+      <c r="K317" s="14"/>
+      <c r="L317" s="14"/>
+      <c r="M317" s="14"/>
+      <c r="N317" s="14"/>
+      <c r="O317" s="14"/>
+      <c r="P317" s="14"/>
+      <c r="Q317" s="14"/>
+      <c r="R317" s="14"/>
+      <c r="S317" s="14"/>
+      <c r="T317" s="7"/>
+    </row>
+    <row r="318" spans="1:20">
+      <c r="A318" s="6"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="14"/>
+      <c r="J318" s="14"/>
+      <c r="K318" s="14"/>
+      <c r="L318" s="14"/>
+      <c r="M318" s="14"/>
+      <c r="N318" s="14"/>
+      <c r="O318" s="14"/>
+      <c r="P318" s="14"/>
+      <c r="Q318" s="14"/>
+      <c r="R318" s="14"/>
+      <c r="S318" s="14"/>
+      <c r="T318" s="7"/>
+    </row>
+    <row r="319" spans="1:20">
+      <c r="A319" s="6"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="14"/>
+      <c r="J319" s="14"/>
+      <c r="K319" s="14"/>
+      <c r="L319" s="14"/>
+      <c r="M319" s="14"/>
+      <c r="N319" s="14"/>
+      <c r="O319" s="14"/>
+      <c r="P319" s="14"/>
+      <c r="Q319" s="14"/>
+      <c r="R319" s="14"/>
+      <c r="S319" s="14"/>
+      <c r="T319" s="7"/>
+    </row>
+    <row r="320" spans="1:20">
+      <c r="A320" s="6"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="14"/>
+      <c r="J320" s="14"/>
+      <c r="K320" s="14"/>
+      <c r="L320" s="14"/>
+      <c r="M320" s="14"/>
+      <c r="N320" s="14"/>
+      <c r="O320" s="14"/>
+      <c r="P320" s="14"/>
+      <c r="Q320" s="14"/>
+      <c r="R320" s="14"/>
+      <c r="S320" s="14"/>
+      <c r="T320" s="7"/>
+    </row>
+    <row r="321" spans="1:20">
+      <c r="A321" s="6"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="14"/>
+      <c r="J321" s="14"/>
+      <c r="K321" s="14"/>
+      <c r="L321" s="14"/>
+      <c r="M321" s="14"/>
+      <c r="N321" s="14"/>
+      <c r="O321" s="14"/>
+      <c r="P321" s="14"/>
+      <c r="Q321" s="14"/>
+      <c r="R321" s="14"/>
+      <c r="S321" s="14"/>
+      <c r="T321" s="7"/>
+    </row>
+    <row r="322" spans="1:20">
+      <c r="A322" s="6"/>
+      <c r="B322" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="14"/>
+      <c r="I322" s="14"/>
+      <c r="J322" s="14"/>
+      <c r="K322" s="14"/>
+      <c r="L322" s="14"/>
+      <c r="M322" s="14"/>
+      <c r="N322" s="14"/>
+      <c r="O322" s="14"/>
+      <c r="P322" s="14"/>
+      <c r="Q322" s="14"/>
+      <c r="R322" s="14"/>
+      <c r="S322" s="14"/>
+      <c r="T322" s="7"/>
+    </row>
+    <row r="323" spans="1:20">
+      <c r="A323" s="6"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
+      <c r="J323" s="14"/>
+      <c r="K323" s="14"/>
+      <c r="L323" s="14"/>
+      <c r="M323" s="14"/>
+      <c r="N323" s="14"/>
+      <c r="O323" s="14"/>
+      <c r="P323" s="14"/>
+      <c r="Q323" s="14"/>
+      <c r="R323" s="14"/>
+      <c r="S323" s="14"/>
+      <c r="T323" s="7"/>
+    </row>
+    <row r="324" spans="1:20">
+      <c r="A324" s="6"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="14"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="14"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
+      <c r="J324" s="14"/>
+      <c r="K324" s="14"/>
+      <c r="L324" s="14"/>
+      <c r="M324" s="14"/>
+      <c r="N324" s="14"/>
+      <c r="O324" s="14"/>
+      <c r="P324" s="14"/>
+      <c r="Q324" s="14"/>
+      <c r="R324" s="14"/>
+      <c r="S324" s="14"/>
+      <c r="T324" s="7"/>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="A325" s="6"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="14"/>
+      <c r="F325" s="14"/>
+      <c r="G325" s="14"/>
+      <c r="H325" s="14"/>
+      <c r="I325" s="14"/>
+      <c r="J325" s="14"/>
+      <c r="K325" s="14"/>
+      <c r="L325" s="14"/>
+      <c r="M325" s="14"/>
+      <c r="N325" s="14"/>
+      <c r="O325" s="14"/>
+      <c r="P325" s="14"/>
+      <c r="Q325" s="14"/>
+      <c r="R325" s="14"/>
+      <c r="S325" s="14"/>
+      <c r="T325" s="7"/>
+    </row>
+    <row r="326" spans="1:20">
+      <c r="A326" s="6"/>
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="14"/>
+      <c r="F326" s="14"/>
+      <c r="G326" s="14"/>
+      <c r="H326" s="14"/>
+      <c r="I326" s="14"/>
+      <c r="J326" s="14"/>
+      <c r="K326" s="14"/>
+      <c r="L326" s="14"/>
+      <c r="M326" s="14"/>
+      <c r="N326" s="14"/>
+      <c r="O326" s="14"/>
+      <c r="P326" s="14"/>
+      <c r="Q326" s="14"/>
+      <c r="R326" s="14"/>
+      <c r="S326" s="14"/>
+      <c r="T326" s="7"/>
+    </row>
+    <row r="327" spans="1:20">
+      <c r="A327" s="6"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="14"/>
+      <c r="H327" s="14"/>
+      <c r="I327" s="14"/>
+      <c r="J327" s="14"/>
+      <c r="K327" s="14"/>
+      <c r="L327" s="14"/>
+      <c r="M327" s="14"/>
+      <c r="N327" s="14"/>
+      <c r="O327" s="14"/>
+      <c r="P327" s="14"/>
+      <c r="Q327" s="14"/>
+      <c r="R327" s="14"/>
+      <c r="S327" s="14"/>
+      <c r="T327" s="7"/>
+    </row>
+    <row r="328" spans="1:20">
+      <c r="A328" s="6"/>
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+      <c r="F328" s="14"/>
+      <c r="G328" s="14"/>
+      <c r="H328" s="14"/>
+      <c r="I328" s="14"/>
+      <c r="J328" s="14"/>
+      <c r="K328" s="14"/>
+      <c r="L328" s="14"/>
+      <c r="M328" s="14"/>
+      <c r="N328" s="14"/>
+      <c r="O328" s="14"/>
+      <c r="P328" s="14"/>
+      <c r="Q328" s="14"/>
+      <c r="R328" s="14"/>
+      <c r="S328" s="14"/>
+      <c r="T328" s="7"/>
+    </row>
+    <row r="329" spans="1:20">
+      <c r="A329" s="6"/>
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="14"/>
+      <c r="F329" s="14"/>
+      <c r="G329" s="14"/>
+      <c r="H329" s="14"/>
+      <c r="I329" s="14"/>
+      <c r="J329" s="14"/>
+      <c r="K329" s="14"/>
+      <c r="L329" s="14"/>
+      <c r="M329" s="14"/>
+      <c r="N329" s="14"/>
+      <c r="O329" s="14"/>
+      <c r="P329" s="14"/>
+      <c r="Q329" s="14"/>
+      <c r="R329" s="14"/>
+      <c r="S329" s="14"/>
+      <c r="T329" s="7"/>
+    </row>
+    <row r="330" spans="1:20">
+      <c r="A330" s="6"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="14"/>
+      <c r="F330" s="14"/>
+      <c r="G330" s="14"/>
+      <c r="H330" s="14"/>
+      <c r="I330" s="14"/>
+      <c r="J330" s="14"/>
+      <c r="K330" s="14"/>
+      <c r="L330" s="14"/>
+      <c r="M330" s="14"/>
+      <c r="N330" s="14"/>
+      <c r="O330" s="14"/>
+      <c r="P330" s="14"/>
+      <c r="Q330" s="14"/>
+      <c r="R330" s="14"/>
+      <c r="S330" s="14"/>
+      <c r="T330" s="7"/>
+    </row>
+    <row r="331" spans="1:20">
+      <c r="A331" s="6"/>
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="14"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14"/>
+      <c r="H331" s="14"/>
+      <c r="I331" s="14"/>
+      <c r="J331" s="14"/>
+      <c r="K331" s="14"/>
+      <c r="L331" s="14"/>
+      <c r="M331" s="14"/>
+      <c r="N331" s="14"/>
+      <c r="O331" s="14"/>
+      <c r="P331" s="14"/>
+      <c r="Q331" s="14"/>
+      <c r="R331" s="14"/>
+      <c r="S331" s="14"/>
+      <c r="T331" s="7"/>
+    </row>
+    <row r="332" spans="1:20">
+      <c r="A332" s="6"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="14"/>
+      <c r="F332" s="14"/>
+      <c r="G332" s="14"/>
+      <c r="H332" s="14"/>
+      <c r="I332" s="14"/>
+      <c r="J332" s="14"/>
+      <c r="K332" s="14"/>
+      <c r="L332" s="14"/>
+      <c r="M332" s="14"/>
+      <c r="N332" s="14"/>
+      <c r="O332" s="14"/>
+      <c r="P332" s="14"/>
+      <c r="Q332" s="14"/>
+      <c r="R332" s="14"/>
+      <c r="S332" s="14"/>
+      <c r="T332" s="7"/>
+    </row>
+    <row r="333" spans="1:20">
+      <c r="A333" s="6"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="14"/>
+      <c r="F333" s="14"/>
+      <c r="G333" s="14"/>
+      <c r="H333" s="14"/>
+      <c r="I333" s="14"/>
+      <c r="J333" s="14"/>
+      <c r="K333" s="14"/>
+      <c r="L333" s="14"/>
+      <c r="M333" s="14"/>
+      <c r="N333" s="14"/>
+      <c r="O333" s="14"/>
+      <c r="P333" s="14"/>
+      <c r="Q333" s="14"/>
+      <c r="R333" s="14"/>
+      <c r="S333" s="14"/>
+      <c r="T333" s="7"/>
+    </row>
+    <row r="334" spans="1:20">
+      <c r="A334" s="6"/>
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="14"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="14"/>
+      <c r="H334" s="14"/>
+      <c r="I334" s="14"/>
+      <c r="J334" s="14"/>
+      <c r="K334" s="14"/>
+      <c r="L334" s="14"/>
+      <c r="M334" s="14"/>
+      <c r="N334" s="14"/>
+      <c r="O334" s="14"/>
+      <c r="P334" s="14"/>
+      <c r="Q334" s="14"/>
+      <c r="R334" s="14"/>
+      <c r="S334" s="14"/>
+      <c r="T334" s="7"/>
+    </row>
+    <row r="335" spans="1:20">
+      <c r="A335" s="6"/>
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
+      <c r="D335" s="14"/>
+      <c r="E335" s="14"/>
+      <c r="F335" s="14"/>
+      <c r="G335" s="14"/>
+      <c r="H335" s="14"/>
+      <c r="I335" s="14"/>
+      <c r="J335" s="14"/>
+      <c r="K335" s="14"/>
+      <c r="L335" s="14"/>
+      <c r="M335" s="14"/>
+      <c r="N335" s="14"/>
+      <c r="O335" s="14"/>
+      <c r="P335" s="14"/>
+      <c r="Q335" s="14"/>
+      <c r="R335" s="14"/>
+      <c r="S335" s="14"/>
+      <c r="T335" s="7"/>
+    </row>
+    <row r="336" spans="1:20">
+      <c r="A336" s="6"/>
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
+      <c r="D336" s="14"/>
+      <c r="E336" s="14"/>
+      <c r="F336" s="14"/>
+      <c r="G336" s="14"/>
+      <c r="H336" s="14"/>
+      <c r="I336" s="14"/>
+      <c r="J336" s="14"/>
+      <c r="K336" s="14"/>
+      <c r="L336" s="14"/>
+      <c r="M336" s="14"/>
+      <c r="N336" s="14"/>
+      <c r="O336" s="14"/>
+      <c r="P336" s="14"/>
+      <c r="Q336" s="14"/>
+      <c r="R336" s="14"/>
+      <c r="S336" s="14"/>
+      <c r="T336" s="7"/>
+    </row>
+    <row r="337" spans="1:20">
+      <c r="A337" s="6"/>
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
+      <c r="D337" s="14"/>
+      <c r="E337" s="14"/>
+      <c r="F337" s="14"/>
+      <c r="G337" s="14"/>
+      <c r="H337" s="14"/>
+      <c r="I337" s="14"/>
+      <c r="J337" s="14"/>
+      <c r="K337" s="14"/>
+      <c r="L337" s="14"/>
+      <c r="M337" s="14"/>
+      <c r="N337" s="14"/>
+      <c r="O337" s="14"/>
+      <c r="P337" s="14"/>
+      <c r="Q337" s="14"/>
+      <c r="R337" s="14"/>
+      <c r="S337" s="14"/>
+      <c r="T337" s="7"/>
+    </row>
+    <row r="338" spans="1:20">
+      <c r="A338" s="6"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="D338" s="14"/>
+      <c r="E338" s="14"/>
+      <c r="F338" s="14"/>
+      <c r="G338" s="14"/>
+      <c r="H338" s="14"/>
+      <c r="I338" s="14"/>
+      <c r="J338" s="14"/>
+      <c r="K338" s="14"/>
+      <c r="L338" s="14"/>
+      <c r="M338" s="14"/>
+      <c r="N338" s="14"/>
+      <c r="O338" s="14"/>
+      <c r="P338" s="14"/>
+      <c r="Q338" s="14"/>
+      <c r="R338" s="14"/>
+      <c r="S338" s="14"/>
+      <c r="T338" s="7"/>
+    </row>
+    <row r="339" spans="1:20">
+      <c r="A339" s="6"/>
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="14"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="14"/>
+      <c r="H339" s="14"/>
+      <c r="I339" s="14"/>
+      <c r="J339" s="14"/>
+      <c r="K339" s="14"/>
+      <c r="L339" s="14"/>
+      <c r="M339" s="14"/>
+      <c r="N339" s="14"/>
+      <c r="O339" s="14"/>
+      <c r="P339" s="14"/>
+      <c r="Q339" s="14"/>
+      <c r="R339" s="14"/>
+      <c r="S339" s="14"/>
+      <c r="T339" s="7"/>
+    </row>
+    <row r="340" spans="1:20">
+      <c r="A340" s="6"/>
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="D340" s="14"/>
+      <c r="E340" s="14"/>
+      <c r="F340" s="14"/>
+      <c r="G340" s="14"/>
+      <c r="H340" s="14"/>
+      <c r="I340" s="14"/>
+      <c r="J340" s="14"/>
+      <c r="K340" s="14"/>
+      <c r="L340" s="14"/>
+      <c r="M340" s="14"/>
+      <c r="N340" s="14"/>
+      <c r="O340" s="14"/>
+      <c r="P340" s="14"/>
+      <c r="Q340" s="14"/>
+      <c r="R340" s="14"/>
+      <c r="S340" s="14"/>
+      <c r="T340" s="7"/>
+    </row>
+    <row r="341" spans="1:20">
+      <c r="A341" s="6"/>
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="14"/>
+      <c r="F341" s="14"/>
+      <c r="G341" s="14"/>
+      <c r="H341" s="14"/>
+      <c r="I341" s="14"/>
+      <c r="J341" s="14"/>
+      <c r="K341" s="14"/>
+      <c r="L341" s="14"/>
+      <c r="M341" s="14"/>
+      <c r="N341" s="14"/>
+      <c r="O341" s="14"/>
+      <c r="P341" s="14"/>
+      <c r="Q341" s="14"/>
+      <c r="R341" s="14"/>
+      <c r="S341" s="14"/>
+      <c r="T341" s="7"/>
+    </row>
+    <row r="342" spans="1:20">
+      <c r="A342" s="6"/>
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="D342" s="14"/>
+      <c r="E342" s="14"/>
+      <c r="F342" s="14"/>
+      <c r="G342" s="14"/>
+      <c r="H342" s="14"/>
+      <c r="I342" s="14"/>
+      <c r="J342" s="14"/>
+      <c r="K342" s="14"/>
+      <c r="L342" s="14"/>
+      <c r="M342" s="14"/>
+      <c r="N342" s="14"/>
+      <c r="O342" s="14"/>
+      <c r="P342" s="14"/>
+      <c r="Q342" s="14"/>
+      <c r="R342" s="14"/>
+      <c r="S342" s="14"/>
+      <c r="T342" s="7"/>
+    </row>
+    <row r="343" spans="1:20">
+      <c r="A343" s="6"/>
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
+      <c r="D343" s="14"/>
+      <c r="E343" s="14"/>
+      <c r="F343" s="14"/>
+      <c r="G343" s="14"/>
+      <c r="H343" s="14"/>
+      <c r="I343" s="14"/>
+      <c r="J343" s="14"/>
+      <c r="K343" s="14"/>
+      <c r="L343" s="14"/>
+      <c r="M343" s="14"/>
+      <c r="N343" s="14"/>
+      <c r="O343" s="14"/>
+      <c r="P343" s="14"/>
+      <c r="Q343" s="14"/>
+      <c r="R343" s="14"/>
+      <c r="S343" s="14"/>
+      <c r="T343" s="7"/>
+    </row>
+    <row r="344" spans="1:20">
+      <c r="A344" s="6"/>
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="D344" s="14"/>
+      <c r="E344" s="14"/>
+      <c r="F344" s="14"/>
+      <c r="G344" s="14"/>
+      <c r="H344" s="14"/>
+      <c r="I344" s="14"/>
+      <c r="J344" s="14"/>
+      <c r="K344" s="14"/>
+      <c r="L344" s="14"/>
+      <c r="M344" s="14"/>
+      <c r="N344" s="14"/>
+      <c r="O344" s="14"/>
+      <c r="P344" s="14"/>
+      <c r="Q344" s="14"/>
+      <c r="R344" s="14"/>
+      <c r="S344" s="14"/>
+      <c r="T344" s="7"/>
+    </row>
+    <row r="345" spans="1:20">
+      <c r="A345" s="6"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="D345" s="14"/>
+      <c r="E345" s="14"/>
+      <c r="F345" s="14"/>
+      <c r="G345" s="14"/>
+      <c r="H345" s="14"/>
+      <c r="I345" s="14"/>
+      <c r="J345" s="14"/>
+      <c r="K345" s="14"/>
+      <c r="L345" s="14"/>
+      <c r="M345" s="14"/>
+      <c r="N345" s="14"/>
+      <c r="O345" s="14"/>
+      <c r="P345" s="14"/>
+      <c r="Q345" s="14"/>
+      <c r="R345" s="14"/>
+      <c r="S345" s="14"/>
+      <c r="T345" s="7"/>
+    </row>
+    <row r="346" spans="1:20">
+      <c r="A346" s="6"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14"/>
+      <c r="E346" s="14"/>
+      <c r="F346" s="14"/>
+      <c r="G346" s="14"/>
+      <c r="H346" s="14"/>
+      <c r="I346" s="14"/>
+      <c r="J346" s="14"/>
+      <c r="K346" s="14"/>
+      <c r="L346" s="14"/>
+      <c r="M346" s="14"/>
+      <c r="N346" s="14"/>
+      <c r="O346" s="14"/>
+      <c r="P346" s="14"/>
+      <c r="Q346" s="14"/>
+      <c r="R346" s="14"/>
+      <c r="S346" s="14"/>
+      <c r="T346" s="7"/>
+    </row>
+    <row r="347" spans="1:20">
+      <c r="A347" s="6"/>
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
+      <c r="D347" s="14"/>
+      <c r="E347" s="14"/>
+      <c r="F347" s="14"/>
+      <c r="G347" s="14"/>
+      <c r="H347" s="14"/>
+      <c r="I347" s="14"/>
+      <c r="J347" s="14"/>
+      <c r="K347" s="14"/>
+      <c r="L347" s="14"/>
+      <c r="M347" s="14"/>
+      <c r="N347" s="14"/>
+      <c r="O347" s="14"/>
+      <c r="P347" s="14"/>
+      <c r="Q347" s="14"/>
+      <c r="R347" s="14"/>
+      <c r="S347" s="14"/>
+      <c r="T347" s="7"/>
+    </row>
+    <row r="348" spans="1:20">
+      <c r="A348" s="6"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="D348" s="14"/>
+      <c r="E348" s="14"/>
+      <c r="F348" s="14"/>
+      <c r="G348" s="14"/>
+      <c r="H348" s="14"/>
+      <c r="I348" s="14"/>
+      <c r="J348" s="14"/>
+      <c r="K348" s="14"/>
+      <c r="L348" s="14"/>
+      <c r="M348" s="14"/>
+      <c r="N348" s="14"/>
+      <c r="O348" s="14"/>
+      <c r="P348" s="14"/>
+      <c r="Q348" s="14"/>
+      <c r="R348" s="14"/>
+      <c r="S348" s="14"/>
+      <c r="T348" s="7"/>
+    </row>
+    <row r="349" spans="1:20">
+      <c r="A349" s="6"/>
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
+      <c r="D349" s="14"/>
+      <c r="E349" s="14"/>
+      <c r="F349" s="14"/>
+      <c r="G349" s="14"/>
+      <c r="H349" s="14"/>
+      <c r="I349" s="14"/>
+      <c r="J349" s="14"/>
+      <c r="K349" s="14"/>
+      <c r="L349" s="14"/>
+      <c r="M349" s="14"/>
+      <c r="N349" s="14"/>
+      <c r="O349" s="14"/>
+      <c r="P349" s="14"/>
+      <c r="Q349" s="14"/>
+      <c r="R349" s="14"/>
+      <c r="S349" s="14"/>
+      <c r="T349" s="7"/>
+    </row>
+    <row r="350" spans="1:20">
+      <c r="A350" s="6"/>
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
+      <c r="D350" s="14"/>
+      <c r="E350" s="14"/>
+      <c r="F350" s="14"/>
+      <c r="G350" s="14"/>
+      <c r="H350" s="14"/>
+      <c r="I350" s="14"/>
+      <c r="J350" s="14"/>
+      <c r="K350" s="14"/>
+      <c r="L350" s="14"/>
+      <c r="M350" s="14"/>
+      <c r="N350" s="14"/>
+      <c r="O350" s="14"/>
+      <c r="P350" s="14"/>
+      <c r="Q350" s="14"/>
+      <c r="R350" s="14"/>
+      <c r="S350" s="14"/>
+      <c r="T350" s="7"/>
+    </row>
+    <row r="351" spans="1:20">
+      <c r="A351" s="6"/>
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="14"/>
+      <c r="F351" s="14"/>
+      <c r="G351" s="14"/>
+      <c r="H351" s="14"/>
+      <c r="I351" s="14"/>
+      <c r="J351" s="14"/>
+      <c r="K351" s="14"/>
+      <c r="L351" s="14"/>
+      <c r="M351" s="14"/>
+      <c r="N351" s="14"/>
+      <c r="O351" s="14"/>
+      <c r="P351" s="14"/>
+      <c r="Q351" s="14"/>
+      <c r="R351" s="14"/>
+      <c r="S351" s="14"/>
+      <c r="T351" s="7"/>
+    </row>
+    <row r="352" spans="1:20">
+      <c r="A352" s="6"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="14"/>
+      <c r="F352" s="14"/>
+      <c r="G352" s="14"/>
+      <c r="H352" s="14"/>
+      <c r="I352" s="14"/>
+      <c r="J352" s="14"/>
+      <c r="K352" s="14"/>
+      <c r="L352" s="14"/>
+      <c r="M352" s="14"/>
+      <c r="N352" s="14"/>
+      <c r="O352" s="14"/>
+      <c r="P352" s="14"/>
+      <c r="Q352" s="14"/>
+      <c r="R352" s="14"/>
+      <c r="S352" s="14"/>
+      <c r="T352" s="7"/>
+    </row>
+    <row r="353" spans="1:20">
+      <c r="A353" s="6"/>
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="14"/>
+      <c r="F353" s="14"/>
+      <c r="G353" s="14"/>
+      <c r="H353" s="14"/>
+      <c r="I353" s="14"/>
+      <c r="J353" s="14"/>
+      <c r="K353" s="14"/>
+      <c r="L353" s="14"/>
+      <c r="M353" s="14"/>
+      <c r="N353" s="14"/>
+      <c r="O353" s="14"/>
+      <c r="P353" s="14"/>
+      <c r="Q353" s="14"/>
+      <c r="R353" s="14"/>
+      <c r="S353" s="14"/>
+      <c r="T353" s="7"/>
+    </row>
+    <row r="354" spans="1:20">
+      <c r="A354" s="6"/>
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="14"/>
+      <c r="F354" s="14"/>
+      <c r="G354" s="14"/>
+      <c r="H354" s="14"/>
+      <c r="I354" s="14"/>
+      <c r="J354" s="14"/>
+      <c r="K354" s="14"/>
+      <c r="L354" s="14"/>
+      <c r="M354" s="14"/>
+      <c r="N354" s="14"/>
+      <c r="O354" s="14"/>
+      <c r="P354" s="14"/>
+      <c r="Q354" s="14"/>
+      <c r="R354" s="14"/>
+      <c r="S354" s="14"/>
+      <c r="T354" s="7"/>
+    </row>
+    <row r="355" spans="1:20">
+      <c r="A355" s="6"/>
+      <c r="B355" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C355" s="14"/>
+      <c r="D355" s="14"/>
+      <c r="E355" s="14"/>
+      <c r="F355" s="14"/>
+      <c r="G355" s="14"/>
+      <c r="H355" s="14"/>
+      <c r="I355" s="14"/>
+      <c r="J355" s="14"/>
+      <c r="K355" s="14"/>
+      <c r="L355" s="14"/>
+      <c r="M355" s="14"/>
+      <c r="N355" s="14"/>
+      <c r="O355" s="14"/>
+      <c r="P355" s="14"/>
+      <c r="Q355" s="14"/>
+      <c r="R355" s="14"/>
+      <c r="S355" s="14"/>
+      <c r="T355" s="7"/>
+    </row>
+    <row r="356" spans="1:20">
+      <c r="A356" s="6"/>
+      <c r="B356" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C356" s="14"/>
+      <c r="D356" s="14"/>
+      <c r="E356" s="14"/>
+      <c r="F356" s="14"/>
+      <c r="G356" s="14"/>
+      <c r="H356" s="14"/>
+      <c r="I356" s="14"/>
+      <c r="J356" s="14"/>
+      <c r="K356" s="14"/>
+      <c r="L356" s="14"/>
+      <c r="M356" s="14"/>
+      <c r="N356" s="14"/>
+      <c r="O356" s="14"/>
+      <c r="P356" s="14"/>
+      <c r="Q356" s="14"/>
+      <c r="R356" s="14"/>
+      <c r="S356" s="14"/>
+      <c r="T356" s="7"/>
+    </row>
+    <row r="357" spans="1:20">
+      <c r="A357" s="6"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="14"/>
+      <c r="F357" s="14"/>
+      <c r="G357" s="14"/>
+      <c r="H357" s="14"/>
+      <c r="I357" s="14"/>
+      <c r="J357" s="14"/>
+      <c r="K357" s="14"/>
+      <c r="L357" s="14"/>
+      <c r="M357" s="14"/>
+      <c r="N357" s="14"/>
+      <c r="O357" s="14"/>
+      <c r="P357" s="14"/>
+      <c r="Q357" s="14"/>
+      <c r="R357" s="14"/>
+      <c r="S357" s="14"/>
+      <c r="T357" s="7"/>
+    </row>
+    <row r="358" spans="1:20">
+      <c r="A358" s="6"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="14"/>
+      <c r="F358" s="14"/>
+      <c r="G358" s="14"/>
+      <c r="H358" s="14"/>
+      <c r="I358" s="14"/>
+      <c r="J358" s="14"/>
+      <c r="K358" s="14"/>
+      <c r="L358" s="14"/>
+      <c r="M358" s="14"/>
+      <c r="N358" s="14"/>
+      <c r="O358" s="14"/>
+      <c r="P358" s="14"/>
+      <c r="Q358" s="14"/>
+      <c r="R358" s="14"/>
+      <c r="S358" s="14"/>
+      <c r="T358" s="7"/>
+    </row>
+    <row r="359" spans="1:20">
+      <c r="A359" s="6"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="14"/>
+      <c r="F359" s="14"/>
+      <c r="G359" s="14"/>
+      <c r="H359" s="14"/>
+      <c r="I359" s="14"/>
+      <c r="J359" s="14"/>
+      <c r="K359" s="14"/>
+      <c r="L359" s="14"/>
+      <c r="M359" s="14"/>
+      <c r="N359" s="14"/>
+      <c r="O359" s="14"/>
+      <c r="P359" s="14"/>
+      <c r="Q359" s="14"/>
+      <c r="R359" s="14"/>
+      <c r="S359" s="14"/>
+      <c r="T359" s="7"/>
+    </row>
+    <row r="360" spans="1:20">
+      <c r="A360" s="6"/>
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="14"/>
+      <c r="F360" s="14"/>
+      <c r="G360" s="14"/>
+      <c r="H360" s="14"/>
+      <c r="I360" s="14"/>
+      <c r="J360" s="14"/>
+      <c r="K360" s="14"/>
+      <c r="L360" s="14"/>
+      <c r="M360" s="14"/>
+      <c r="N360" s="14"/>
+      <c r="O360" s="14"/>
+      <c r="P360" s="14"/>
+      <c r="Q360" s="14"/>
+      <c r="R360" s="14"/>
+      <c r="S360" s="14"/>
+      <c r="T360" s="7"/>
+    </row>
+    <row r="361" spans="1:20">
+      <c r="A361" s="6"/>
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
+      <c r="E361" s="14"/>
+      <c r="F361" s="14"/>
+      <c r="G361" s="14"/>
+      <c r="H361" s="14"/>
+      <c r="I361" s="14"/>
+      <c r="J361" s="14"/>
+      <c r="K361" s="14"/>
+      <c r="L361" s="14"/>
+      <c r="M361" s="14"/>
+      <c r="N361" s="14"/>
+      <c r="O361" s="14"/>
+      <c r="P361" s="14"/>
+      <c r="Q361" s="14"/>
+      <c r="R361" s="14"/>
+      <c r="S361" s="14"/>
+      <c r="T361" s="7"/>
+    </row>
+    <row r="362" spans="1:20">
+      <c r="A362" s="6"/>
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
+      <c r="D362" s="14"/>
+      <c r="E362" s="14"/>
+      <c r="F362" s="14"/>
+      <c r="G362" s="14"/>
+      <c r="H362" s="14"/>
+      <c r="I362" s="14"/>
+      <c r="J362" s="14"/>
+      <c r="K362" s="14"/>
+      <c r="L362" s="14"/>
+      <c r="M362" s="14"/>
+      <c r="N362" s="14"/>
+      <c r="O362" s="14"/>
+      <c r="P362" s="14"/>
+      <c r="Q362" s="14"/>
+      <c r="R362" s="14"/>
+      <c r="S362" s="14"/>
+      <c r="T362" s="7"/>
+    </row>
+    <row r="363" spans="1:20">
+      <c r="A363" s="6"/>
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="14"/>
+      <c r="F363" s="14"/>
+      <c r="G363" s="14"/>
+      <c r="H363" s="14"/>
+      <c r="I363" s="14"/>
+      <c r="J363" s="14"/>
+      <c r="K363" s="14"/>
+      <c r="L363" s="14"/>
+      <c r="M363" s="14"/>
+      <c r="N363" s="14"/>
+      <c r="O363" s="14"/>
+      <c r="P363" s="14"/>
+      <c r="Q363" s="14"/>
+      <c r="R363" s="14"/>
+      <c r="S363" s="14"/>
+      <c r="T363" s="7"/>
+    </row>
+    <row r="364" spans="1:20">
+      <c r="A364" s="6"/>
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="14"/>
+      <c r="F364" s="14"/>
+      <c r="G364" s="14"/>
+      <c r="H364" s="14"/>
+      <c r="I364" s="14"/>
+      <c r="J364" s="14"/>
+      <c r="K364" s="14"/>
+      <c r="L364" s="14"/>
+      <c r="M364" s="14"/>
+      <c r="N364" s="14"/>
+      <c r="O364" s="14"/>
+      <c r="P364" s="14"/>
+      <c r="Q364" s="14"/>
+      <c r="R364" s="14"/>
+      <c r="S364" s="14"/>
+      <c r="T364" s="7"/>
+    </row>
+    <row r="365" spans="1:20">
+      <c r="A365" s="6"/>
+      <c r="B365" s="14"/>
+      <c r="C365" s="14"/>
+      <c r="D365" s="14"/>
+      <c r="E365" s="14"/>
+      <c r="F365" s="14"/>
+      <c r="G365" s="14"/>
+      <c r="H365" s="14"/>
+      <c r="I365" s="14"/>
+      <c r="J365" s="14"/>
+      <c r="K365" s="14"/>
+      <c r="L365" s="14"/>
+      <c r="M365" s="14"/>
+      <c r="N365" s="14"/>
+      <c r="O365" s="14"/>
+      <c r="P365" s="14"/>
+      <c r="Q365" s="14"/>
+      <c r="R365" s="14"/>
+      <c r="S365" s="14"/>
+      <c r="T365" s="7"/>
+    </row>
+    <row r="366" spans="1:20">
+      <c r="A366" s="6"/>
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
+      <c r="D366" s="14"/>
+      <c r="E366" s="14"/>
+      <c r="F366" s="14"/>
+      <c r="G366" s="14"/>
+      <c r="H366" s="14"/>
+      <c r="I366" s="14"/>
+      <c r="J366" s="14"/>
+      <c r="K366" s="14"/>
+      <c r="L366" s="14"/>
+      <c r="M366" s="14"/>
+      <c r="N366" s="14"/>
+      <c r="O366" s="14"/>
+      <c r="P366" s="14"/>
+      <c r="Q366" s="14"/>
+      <c r="R366" s="14"/>
+      <c r="S366" s="14"/>
+      <c r="T366" s="7"/>
+    </row>
+    <row r="367" spans="1:20">
+      <c r="A367" s="6"/>
+      <c r="B367" s="14"/>
+      <c r="C367" s="14"/>
+      <c r="D367" s="14"/>
+      <c r="E367" s="14"/>
+      <c r="F367" s="14"/>
+      <c r="G367" s="14"/>
+      <c r="H367" s="14"/>
+      <c r="I367" s="14"/>
+      <c r="J367" s="14"/>
+      <c r="K367" s="14"/>
+      <c r="L367" s="14"/>
+      <c r="M367" s="14"/>
+      <c r="N367" s="14"/>
+      <c r="O367" s="14"/>
+      <c r="P367" s="14"/>
+      <c r="Q367" s="14"/>
+      <c r="R367" s="14"/>
+      <c r="S367" s="14"/>
+      <c r="T367" s="7"/>
+    </row>
+    <row r="368" spans="1:20">
+      <c r="A368" s="6"/>
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
+      <c r="D368" s="14"/>
+      <c r="E368" s="14"/>
+      <c r="F368" s="14"/>
+      <c r="G368" s="14"/>
+      <c r="H368" s="14"/>
+      <c r="I368" s="14"/>
+      <c r="J368" s="14"/>
+      <c r="K368" s="14"/>
+      <c r="L368" s="14"/>
+      <c r="M368" s="14"/>
+      <c r="N368" s="14"/>
+      <c r="O368" s="14"/>
+      <c r="P368" s="14"/>
+      <c r="Q368" s="14"/>
+      <c r="R368" s="14"/>
+      <c r="S368" s="14"/>
+      <c r="T368" s="7"/>
+    </row>
+    <row r="369" spans="1:20">
+      <c r="A369" s="6"/>
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="14"/>
+      <c r="F369" s="14"/>
+      <c r="G369" s="14"/>
+      <c r="H369" s="14"/>
+      <c r="I369" s="14"/>
+      <c r="J369" s="14"/>
+      <c r="K369" s="14"/>
+      <c r="L369" s="14"/>
+      <c r="M369" s="14"/>
+      <c r="N369" s="14"/>
+      <c r="O369" s="14"/>
+      <c r="P369" s="14"/>
+      <c r="Q369" s="14"/>
+      <c r="R369" s="14"/>
+      <c r="S369" s="14"/>
+      <c r="T369" s="7"/>
+    </row>
+    <row r="370" spans="1:20">
+      <c r="A370" s="6"/>
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="14"/>
+      <c r="F370" s="14"/>
+      <c r="G370" s="14"/>
+      <c r="H370" s="14"/>
+      <c r="I370" s="14"/>
+      <c r="J370" s="14"/>
+      <c r="K370" s="14"/>
+      <c r="L370" s="14"/>
+      <c r="M370" s="14"/>
+      <c r="N370" s="14"/>
+      <c r="O370" s="14"/>
+      <c r="P370" s="14"/>
+      <c r="Q370" s="14"/>
+      <c r="R370" s="14"/>
+      <c r="S370" s="14"/>
+      <c r="T370" s="7"/>
+    </row>
+    <row r="371" spans="1:20">
+      <c r="A371" s="6"/>
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
+      <c r="D371" s="14"/>
+      <c r="E371" s="14"/>
+      <c r="F371" s="14"/>
+      <c r="G371" s="14"/>
+      <c r="H371" s="14"/>
+      <c r="I371" s="14"/>
+      <c r="J371" s="14"/>
+      <c r="K371" s="14"/>
+      <c r="L371" s="14"/>
+      <c r="M371" s="14"/>
+      <c r="N371" s="14"/>
+      <c r="O371" s="14"/>
+      <c r="P371" s="14"/>
+      <c r="Q371" s="14"/>
+      <c r="R371" s="14"/>
+      <c r="S371" s="14"/>
+      <c r="T371" s="7"/>
+    </row>
+    <row r="372" spans="1:20">
+      <c r="A372" s="6"/>
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="14"/>
+      <c r="F372" s="14"/>
+      <c r="G372" s="14"/>
+      <c r="H372" s="14"/>
+      <c r="I372" s="14"/>
+      <c r="J372" s="14"/>
+      <c r="K372" s="14"/>
+      <c r="L372" s="14"/>
+      <c r="M372" s="14"/>
+      <c r="N372" s="14"/>
+      <c r="O372" s="14"/>
+      <c r="P372" s="14"/>
+      <c r="Q372" s="14"/>
+      <c r="R372" s="14"/>
+      <c r="S372" s="14"/>
+      <c r="T372" s="7"/>
+    </row>
+    <row r="373" spans="1:20">
+      <c r="A373" s="6"/>
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="14"/>
+      <c r="F373" s="14"/>
+      <c r="G373" s="14"/>
+      <c r="H373" s="14"/>
+      <c r="I373" s="14"/>
+      <c r="J373" s="14"/>
+      <c r="K373" s="14"/>
+      <c r="L373" s="14"/>
+      <c r="M373" s="14"/>
+      <c r="N373" s="14"/>
+      <c r="O373" s="14"/>
+      <c r="P373" s="14"/>
+      <c r="Q373" s="14"/>
+      <c r="R373" s="14"/>
+      <c r="S373" s="14"/>
+      <c r="T373" s="7"/>
+    </row>
+    <row r="374" spans="1:20">
+      <c r="A374" s="6"/>
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="14"/>
+      <c r="F374" s="14"/>
+      <c r="G374" s="14"/>
+      <c r="H374" s="14"/>
+      <c r="I374" s="14"/>
+      <c r="J374" s="14"/>
+      <c r="K374" s="14"/>
+      <c r="L374" s="14"/>
+      <c r="M374" s="14"/>
+      <c r="N374" s="14"/>
+      <c r="O374" s="14"/>
+      <c r="P374" s="14"/>
+      <c r="Q374" s="14"/>
+      <c r="R374" s="14"/>
+      <c r="S374" s="14"/>
+      <c r="T374" s="7"/>
+    </row>
+    <row r="375" spans="1:20">
+      <c r="A375" s="6"/>
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="14"/>
+      <c r="F375" s="14"/>
+      <c r="G375" s="14"/>
+      <c r="H375" s="14"/>
+      <c r="I375" s="14"/>
+      <c r="J375" s="14"/>
+      <c r="K375" s="14"/>
+      <c r="L375" s="14"/>
+      <c r="M375" s="14"/>
+      <c r="N375" s="14"/>
+      <c r="O375" s="14"/>
+      <c r="P375" s="14"/>
+      <c r="Q375" s="14"/>
+      <c r="R375" s="14"/>
+      <c r="S375" s="14"/>
+      <c r="T375" s="7"/>
+    </row>
+    <row r="376" spans="1:20">
+      <c r="A376" s="6"/>
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+      <c r="F376" s="14"/>
+      <c r="G376" s="14"/>
+      <c r="H376" s="14"/>
+      <c r="I376" s="14"/>
+      <c r="J376" s="14"/>
+      <c r="K376" s="14"/>
+      <c r="L376" s="14"/>
+      <c r="M376" s="14"/>
+      <c r="N376" s="14"/>
+      <c r="O376" s="14"/>
+      <c r="P376" s="14"/>
+      <c r="Q376" s="14"/>
+      <c r="R376" s="14"/>
+      <c r="S376" s="14"/>
+      <c r="T376" s="7"/>
+    </row>
+    <row r="377" spans="1:20">
+      <c r="A377" s="6"/>
+      <c r="B377" s="14"/>
+      <c r="C377" s="14"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="14"/>
+      <c r="F377" s="14"/>
+      <c r="G377" s="14"/>
+      <c r="H377" s="14"/>
+      <c r="I377" s="14"/>
+      <c r="J377" s="14"/>
+      <c r="K377" s="14"/>
+      <c r="L377" s="14"/>
+      <c r="M377" s="14"/>
+      <c r="N377" s="14"/>
+      <c r="O377" s="14"/>
+      <c r="P377" s="14"/>
+      <c r="Q377" s="14"/>
+      <c r="R377" s="14"/>
+      <c r="S377" s="14"/>
+      <c r="T377" s="7"/>
+    </row>
+    <row r="378" spans="1:20">
+      <c r="A378" s="6"/>
+      <c r="B378" s="14"/>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="14"/>
+      <c r="F378" s="14"/>
+      <c r="G378" s="14"/>
+      <c r="H378" s="14"/>
+      <c r="I378" s="14"/>
+      <c r="J378" s="14"/>
+      <c r="K378" s="14"/>
+      <c r="L378" s="14"/>
+      <c r="M378" s="14"/>
+      <c r="N378" s="14"/>
+      <c r="O378" s="14"/>
+      <c r="P378" s="14"/>
+      <c r="Q378" s="14"/>
+      <c r="R378" s="14"/>
+      <c r="S378" s="14"/>
+      <c r="T378" s="7"/>
+    </row>
+    <row r="379" spans="1:20">
+      <c r="A379" s="6"/>
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="14"/>
+      <c r="F379" s="14"/>
+      <c r="G379" s="14"/>
+      <c r="H379" s="14"/>
+      <c r="I379" s="14"/>
+      <c r="J379" s="14"/>
+      <c r="K379" s="14"/>
+      <c r="L379" s="14"/>
+      <c r="M379" s="14"/>
+      <c r="N379" s="14"/>
+      <c r="O379" s="14"/>
+      <c r="P379" s="14"/>
+      <c r="Q379" s="14"/>
+      <c r="R379" s="14"/>
+      <c r="S379" s="14"/>
+      <c r="T379" s="7"/>
+    </row>
+    <row r="380" spans="1:20">
+      <c r="A380" s="6"/>
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
+      <c r="D380" s="14"/>
+      <c r="E380" s="14"/>
+      <c r="F380" s="14"/>
+      <c r="G380" s="14"/>
+      <c r="H380" s="14"/>
+      <c r="I380" s="14"/>
+      <c r="J380" s="14"/>
+      <c r="K380" s="14"/>
+      <c r="L380" s="14"/>
+      <c r="M380" s="14"/>
+      <c r="N380" s="14"/>
+      <c r="O380" s="14"/>
+      <c r="P380" s="14"/>
+      <c r="Q380" s="14"/>
+      <c r="R380" s="14"/>
+      <c r="S380" s="14"/>
+      <c r="T380" s="7"/>
+    </row>
+    <row r="381" spans="1:20">
+      <c r="A381" s="6"/>
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="D381" s="14"/>
+      <c r="E381" s="14"/>
+      <c r="F381" s="14"/>
+      <c r="G381" s="14"/>
+      <c r="H381" s="14"/>
+      <c r="I381" s="14"/>
+      <c r="J381" s="14"/>
+      <c r="K381" s="14"/>
+      <c r="L381" s="14"/>
+      <c r="M381" s="14"/>
+      <c r="N381" s="14"/>
+      <c r="O381" s="14"/>
+      <c r="P381" s="14"/>
+      <c r="Q381" s="14"/>
+      <c r="R381" s="14"/>
+      <c r="S381" s="14"/>
+      <c r="T381" s="7"/>
+    </row>
+    <row r="382" spans="1:20">
+      <c r="A382" s="6"/>
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
+      <c r="D382" s="14"/>
+      <c r="E382" s="14"/>
+      <c r="F382" s="14"/>
+      <c r="G382" s="14"/>
+      <c r="H382" s="14"/>
+      <c r="I382" s="14"/>
+      <c r="J382" s="14"/>
+      <c r="K382" s="14"/>
+      <c r="L382" s="14"/>
+      <c r="M382" s="14"/>
+      <c r="N382" s="14"/>
+      <c r="O382" s="14"/>
+      <c r="P382" s="14"/>
+      <c r="Q382" s="14"/>
+      <c r="R382" s="14"/>
+      <c r="S382" s="14"/>
+      <c r="T382" s="7"/>
+    </row>
+    <row r="383" spans="1:20">
+      <c r="A383" s="6"/>
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
+      <c r="D383" s="14"/>
+      <c r="E383" s="14"/>
+      <c r="F383" s="14"/>
+      <c r="G383" s="14"/>
+      <c r="H383" s="14"/>
+      <c r="I383" s="14"/>
+      <c r="J383" s="14"/>
+      <c r="K383" s="14"/>
+      <c r="L383" s="14"/>
+      <c r="M383" s="14"/>
+      <c r="N383" s="14"/>
+      <c r="O383" s="14"/>
+      <c r="P383" s="14"/>
+      <c r="Q383" s="14"/>
+      <c r="R383" s="14"/>
+      <c r="S383" s="14"/>
+      <c r="T383" s="7"/>
+    </row>
+    <row r="384" spans="1:20">
+      <c r="A384" s="6"/>
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="14"/>
+      <c r="F384" s="14"/>
+      <c r="G384" s="14"/>
+      <c r="H384" s="14"/>
+      <c r="I384" s="14"/>
+      <c r="J384" s="14"/>
+      <c r="K384" s="14"/>
+      <c r="L384" s="14"/>
+      <c r="M384" s="14"/>
+      <c r="N384" s="14"/>
+      <c r="O384" s="14"/>
+      <c r="P384" s="14"/>
+      <c r="Q384" s="14"/>
+      <c r="R384" s="14"/>
+      <c r="S384" s="14"/>
+      <c r="T384" s="7"/>
+    </row>
+    <row r="385" spans="1:20">
+      <c r="A385" s="6"/>
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="14"/>
+      <c r="F385" s="14"/>
+      <c r="G385" s="14"/>
+      <c r="H385" s="14"/>
+      <c r="I385" s="14"/>
+      <c r="J385" s="14"/>
+      <c r="K385" s="14"/>
+      <c r="L385" s="14"/>
+      <c r="M385" s="14"/>
+      <c r="N385" s="14"/>
+      <c r="O385" s="14"/>
+      <c r="P385" s="14"/>
+      <c r="Q385" s="14"/>
+      <c r="R385" s="14"/>
+      <c r="S385" s="14"/>
+      <c r="T385" s="7"/>
+    </row>
+    <row r="386" spans="1:20">
+      <c r="A386" s="9"/>
+      <c r="B386" s="10"/>
+      <c r="C386" s="10"/>
+      <c r="D386" s="10"/>
+      <c r="E386" s="10"/>
+      <c r="F386" s="10"/>
+      <c r="G386" s="10"/>
+      <c r="H386" s="10"/>
+      <c r="I386" s="10"/>
+      <c r="J386" s="10"/>
+      <c r="K386" s="10"/>
+      <c r="L386" s="10"/>
+      <c r="M386" s="10"/>
+      <c r="N386" s="10"/>
+      <c r="O386" s="10"/>
+      <c r="P386" s="10"/>
+      <c r="Q386" s="10"/>
+      <c r="R386" s="10"/>
+      <c r="S386" s="10"/>
+      <c r="T386" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
